--- a/Jogos_do_Dia/2023-03-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1825,7 +1825,7 @@
         <v>3.6</v>
       </c>
       <c r="H2">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="I2">
         <v>1.01</v>
@@ -1840,10 +1840,10 @@
         <v>4.3</v>
       </c>
       <c r="M2">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="N2">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
         <v>1.32</v>
@@ -1923,7 +1923,7 @@
         <v>262</v>
       </c>
       <c r="F3">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="G3">
         <v>3.4</v>
@@ -1944,10 +1944,10 @@
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="N3">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="O3">
         <v>1.4</v>
@@ -2027,13 +2027,13 @@
         <v>263</v>
       </c>
       <c r="F4">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H4">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="I4">
         <v>1.03</v>
@@ -2048,10 +2048,10 @@
         <v>2.98</v>
       </c>
       <c r="M4">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="N4">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="O4">
         <v>1.4</v>
@@ -2090,28 +2090,28 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:34">
@@ -2194,28 +2194,28 @@
         <v>1.22</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -2235,10 +2235,10 @@
         <v>265</v>
       </c>
       <c r="F6">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="G6">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2256,10 +2256,10 @@
         <v>2.95</v>
       </c>
       <c r="M6">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="O6">
         <v>1.46</v>
@@ -2339,13 +2339,13 @@
         <v>266</v>
       </c>
       <c r="F7">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G7">
         <v>3.2</v>
       </c>
       <c r="H7">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="I7">
         <v>1.06</v>
@@ -2360,10 +2360,10 @@
         <v>3.3</v>
       </c>
       <c r="M7">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="N7">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O7">
         <v>1.4</v>
@@ -2464,10 +2464,10 @@
         <v>3.5</v>
       </c>
       <c r="M8">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O8">
         <v>1.4</v>
@@ -2506,13 +2506,13 @@
         <v>3.43</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AD8">
         <v>1.24</v>
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="I9">
         <v>1.08</v>
@@ -2568,10 +2568,10 @@
         <v>2.7</v>
       </c>
       <c r="M9">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="N9">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O9">
         <v>1.51</v>
@@ -2610,16 +2610,16 @@
         <v>4.01</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE9">
         <v>1.55</v>
@@ -2631,7 +2631,7 @@
         <v>2.3</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -2651,13 +2651,13 @@
         <v>269</v>
       </c>
       <c r="F10">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I10">
         <v>1.08</v>
@@ -2672,10 +2672,10 @@
         <v>2.95</v>
       </c>
       <c r="M10">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="N10">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="O10">
         <v>1.48</v>
@@ -2714,13 +2714,13 @@
         <v>2.7</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AD10">
         <v>1.27</v>
@@ -2755,13 +2755,13 @@
         <v>270</v>
       </c>
       <c r="F11">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="I11">
         <v>1.07</v>
@@ -2776,10 +2776,10 @@
         <v>3</v>
       </c>
       <c r="M11">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="N11">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O11">
         <v>1.45</v>
@@ -2818,16 +2818,16 @@
         <v>2.84</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE11">
         <v>1.55</v>
@@ -2839,7 +2839,7 @@
         <v>2.3</v>
       </c>
       <c r="AH11">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -2859,13 +2859,13 @@
         <v>271</v>
       </c>
       <c r="F12">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="G12">
         <v>3.25</v>
       </c>
       <c r="H12">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -2880,10 +2880,10 @@
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="N12">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -2963,13 +2963,13 @@
         <v>272</v>
       </c>
       <c r="F13">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="G13">
         <v>3.2</v>
       </c>
       <c r="H13">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -2984,10 +2984,10 @@
         <v>3.6</v>
       </c>
       <c r="M13">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="N13">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -3067,13 +3067,13 @@
         <v>273</v>
       </c>
       <c r="F14">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I14">
         <v>1.07</v>
@@ -3088,10 +3088,10 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N14">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="O14">
         <v>1.44</v>
@@ -3192,10 +3192,10 @@
         <v>3.25</v>
       </c>
       <c r="M15">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="N15">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -3275,13 +3275,13 @@
         <v>275</v>
       </c>
       <c r="F16">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="G16">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H16">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I16">
         <v>1.04</v>
@@ -3296,10 +3296,10 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="N16">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="O16">
         <v>1.33</v>
@@ -3382,10 +3382,10 @@
         <v>2.4</v>
       </c>
       <c r="G17">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H17">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="I17">
         <v>1.03</v>
@@ -3400,10 +3400,10 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O17">
         <v>1.32</v>
@@ -3483,13 +3483,13 @@
         <v>277</v>
       </c>
       <c r="F18">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="G18">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H18">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="I18">
         <v>1.06</v>
@@ -3504,10 +3504,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N18">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O18">
         <v>1.44</v>
@@ -3587,10 +3587,10 @@
         <v>278</v>
       </c>
       <c r="F19">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H19">
         <v>3.1</v>
@@ -3608,10 +3608,10 @@
         <v>2.75</v>
       </c>
       <c r="M19">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N19">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="O19">
         <v>1.5</v>
@@ -3691,7 +3691,7 @@
         <v>279</v>
       </c>
       <c r="F20">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -3712,7 +3712,7 @@
         <v>2.62</v>
       </c>
       <c r="M20">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="N20">
         <v>1.61</v>
@@ -3795,13 +3795,13 @@
         <v>280</v>
       </c>
       <c r="F21">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G21">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H21">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I21">
         <v>1.03</v>
@@ -3816,10 +3816,10 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>2.13</v>
+        <v>2.05</v>
       </c>
       <c r="N21">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="O21">
         <v>1.43</v>
@@ -3858,28 +3858,28 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AE21">
         <v>1.85</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:34">
@@ -3899,13 +3899,13 @@
         <v>281</v>
       </c>
       <c r="F22">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="G22">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H22">
-        <v>2.75</v>
+        <v>2.15</v>
       </c>
       <c r="I22">
         <v>1.05</v>
@@ -3920,10 +3920,10 @@
         <v>3.5</v>
       </c>
       <c r="M22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N22">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O22">
         <v>1.39</v>
@@ -4003,13 +4003,13 @@
         <v>282</v>
       </c>
       <c r="F23">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G23">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H23">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1.05</v>
@@ -4024,10 +4024,10 @@
         <v>3.75</v>
       </c>
       <c r="M23">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="N23">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="O23">
         <v>1.33</v>
@@ -4107,13 +4107,13 @@
         <v>283</v>
       </c>
       <c r="F24">
-        <v>1.78</v>
+        <v>1.96</v>
       </c>
       <c r="G24">
-        <v>3.4</v>
+        <v>3.34</v>
       </c>
       <c r="H24">
-        <v>4.2</v>
+        <v>3.86</v>
       </c>
       <c r="I24">
         <v>1.02</v>
@@ -4128,10 +4128,10 @@
         <v>2.75</v>
       </c>
       <c r="M24">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N24">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="O24">
         <v>1.44</v>
@@ -4211,13 +4211,13 @@
         <v>284</v>
       </c>
       <c r="F25">
-        <v>2.12</v>
+        <v>2.35</v>
       </c>
       <c r="G25">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H25">
-        <v>3.15</v>
+        <v>2.87</v>
       </c>
       <c r="I25">
         <v>1.05</v>
@@ -4232,10 +4232,10 @@
         <v>3.82</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="N25">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="O25">
         <v>1.33</v>
@@ -4315,13 +4315,13 @@
         <v>285</v>
       </c>
       <c r="F26">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G26">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="H26">
-        <v>5.1</v>
+        <v>5.21</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4336,10 +4336,10 @@
         <v>4.4</v>
       </c>
       <c r="M26">
-        <v>1.82</v>
+        <v>1.59</v>
       </c>
       <c r="N26">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="O26">
         <v>1.29</v>
@@ -4378,28 +4378,28 @@
         <v>2.95</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="27" spans="1:34">
@@ -4419,13 +4419,13 @@
         <v>286</v>
       </c>
       <c r="F27">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="G27">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H27">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="I27">
         <v>1.06</v>
@@ -4440,10 +4440,10 @@
         <v>3.5</v>
       </c>
       <c r="M27">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="N27">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="O27">
         <v>1.36</v>
@@ -4523,13 +4523,13 @@
         <v>287</v>
       </c>
       <c r="F28">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="G28">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="H28">
-        <v>3.7</v>
+        <v>3.93</v>
       </c>
       <c r="I28">
         <v>1.07</v>
@@ -4544,10 +4544,10 @@
         <v>2.87</v>
       </c>
       <c r="M28">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N28">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O28">
         <v>1.44</v>
@@ -4627,13 +4627,13 @@
         <v>288</v>
       </c>
       <c r="F29">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G29">
-        <v>4.2</v>
+        <v>4.22</v>
       </c>
       <c r="H29">
-        <v>5.5</v>
+        <v>5.81</v>
       </c>
       <c r="I29">
         <v>1.04</v>
@@ -4648,10 +4648,10 @@
         <v>4.2</v>
       </c>
       <c r="M29">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="N29">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="O29">
         <v>1.32</v>
@@ -4731,13 +4731,13 @@
         <v>289</v>
       </c>
       <c r="F30">
-        <v>3.2</v>
+        <v>2.97</v>
       </c>
       <c r="G30">
-        <v>3.45</v>
+        <v>3.62</v>
       </c>
       <c r="H30">
-        <v>2.06</v>
+        <v>2.35</v>
       </c>
       <c r="I30">
         <v>1.03</v>
@@ -4752,10 +4752,10 @@
         <v>3.8</v>
       </c>
       <c r="M30">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="N30">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="O30">
         <v>1.32</v>
@@ -4835,13 +4835,13 @@
         <v>290</v>
       </c>
       <c r="F31">
-        <v>3.3</v>
+        <v>3.53</v>
       </c>
       <c r="G31">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="H31">
-        <v>2.05</v>
+        <v>2.16</v>
       </c>
       <c r="I31">
         <v>1.05</v>
@@ -4856,10 +4856,10 @@
         <v>3.5</v>
       </c>
       <c r="M31">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="N31">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O31">
         <v>1.37</v>
@@ -4939,13 +4939,13 @@
         <v>291</v>
       </c>
       <c r="F32">
-        <v>4.5</v>
+        <v>4.38</v>
       </c>
       <c r="G32">
-        <v>3.5</v>
+        <v>3.56</v>
       </c>
       <c r="H32">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="I32">
         <v>1.04</v>
@@ -4960,10 +4960,10 @@
         <v>3.5</v>
       </c>
       <c r="M32">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="N32">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="O32">
         <v>1.36</v>
@@ -5043,13 +5043,13 @@
         <v>292</v>
       </c>
       <c r="F33">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G33">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="H33">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -5064,10 +5064,10 @@
         <v>3.3</v>
       </c>
       <c r="M33">
-        <v>2.04</v>
+        <v>1.97</v>
       </c>
       <c r="N33">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="O33">
         <v>1.4</v>
@@ -5147,13 +5147,13 @@
         <v>293</v>
       </c>
       <c r="F34">
-        <v>2.23</v>
+        <v>2.3</v>
       </c>
       <c r="G34">
-        <v>3.2</v>
+        <v>3.39</v>
       </c>
       <c r="H34">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
       <c r="I34">
         <v>1.04</v>
@@ -5168,10 +5168,10 @@
         <v>3</v>
       </c>
       <c r="M34">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="N34">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="O34">
         <v>1.42</v>
@@ -5251,13 +5251,13 @@
         <v>294</v>
       </c>
       <c r="F35">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="G35">
-        <v>4.8</v>
+        <v>5.09</v>
       </c>
       <c r="H35">
-        <v>6.75</v>
+        <v>7.7</v>
       </c>
       <c r="I35">
         <v>1.01</v>
@@ -5272,10 +5272,10 @@
         <v>4.7</v>
       </c>
       <c r="M35">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="N35">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="O35">
         <v>1.3</v>
@@ -5355,13 +5355,13 @@
         <v>295</v>
       </c>
       <c r="F36">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="G36">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="H36">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="I36">
         <v>1.03</v>
@@ -5376,10 +5376,10 @@
         <v>3.7</v>
       </c>
       <c r="M36">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="N36">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="O36">
         <v>1.35</v>
@@ -5459,13 +5459,13 @@
         <v>296</v>
       </c>
       <c r="F37">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="G37">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="I37">
         <v>1.08</v>
@@ -5480,10 +5480,10 @@
         <v>3.1</v>
       </c>
       <c r="M37">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="N37">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="O37">
         <v>1.46</v>
@@ -5563,52 +5563,52 @@
         <v>297</v>
       </c>
       <c r="F38">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>7.64</v>
       </c>
       <c r="H38">
-        <v>16</v>
+        <v>16.48</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M38">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>2.99</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Q38">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R38">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="V38">
         <v>2.38</v>
@@ -5626,28 +5626,28 @@
         <v>3.35</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="39" spans="1:34">
@@ -5667,13 +5667,13 @@
         <v>298</v>
       </c>
       <c r="F39">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G39">
-        <v>3.55</v>
+        <v>3.83</v>
       </c>
       <c r="H39">
-        <v>3.8</v>
+        <v>3.81</v>
       </c>
       <c r="I39">
         <v>1.05</v>
@@ -5688,10 +5688,10 @@
         <v>3.75</v>
       </c>
       <c r="M39">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="N39">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="O39">
         <v>1.34</v>
@@ -5730,13 +5730,13 @@
         <v>3.74</v>
       </c>
       <c r="AA39">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AD39">
         <v>1.2</v>
@@ -5771,13 +5771,13 @@
         <v>299</v>
       </c>
       <c r="F40">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="G40">
-        <v>3.55</v>
+        <v>3.87</v>
       </c>
       <c r="H40">
-        <v>3.2</v>
+        <v>3.56</v>
       </c>
       <c r="I40">
         <v>1.05</v>
@@ -5792,10 +5792,10 @@
         <v>3.6</v>
       </c>
       <c r="M40">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="N40">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="O40">
         <v>1.36</v>
@@ -5834,13 +5834,13 @@
         <v>3.34</v>
       </c>
       <c r="AA40">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>3.12</v>
       </c>
       <c r="AD40">
         <v>1.2</v>
@@ -5875,13 +5875,13 @@
         <v>300</v>
       </c>
       <c r="F41">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="G41">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H41">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I41">
         <v>1.04</v>
@@ -5896,10 +5896,10 @@
         <v>3.8</v>
       </c>
       <c r="M41">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="N41">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="O41">
         <v>1.32</v>
@@ -5938,13 +5938,13 @@
         <v>2.84</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AD41">
         <v>1.18</v>
@@ -5979,13 +5979,13 @@
         <v>301</v>
       </c>
       <c r="F42">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="G42">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H42">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I42">
         <v>1.01</v>
@@ -6000,10 +6000,10 @@
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="N42">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="O42">
         <v>1.37</v>
@@ -6042,13 +6042,13 @@
         <v>3.34</v>
       </c>
       <c r="AA42">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AD42">
         <v>1.22</v>
@@ -6083,13 +6083,13 @@
         <v>302</v>
       </c>
       <c r="F43">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="G43">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H43">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="I43">
         <v>1.05</v>
@@ -6104,10 +6104,10 @@
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="N43">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O43">
         <v>1.36</v>
@@ -6146,13 +6146,13 @@
         <v>2.81</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AD43">
         <v>1.18</v>
@@ -6187,13 +6187,13 @@
         <v>303</v>
       </c>
       <c r="F44">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G44">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H44">
-        <v>2.7</v>
+        <v>2.95</v>
       </c>
       <c r="I44">
         <v>1.04</v>
@@ -6208,10 +6208,10 @@
         <v>4</v>
       </c>
       <c r="M44">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="N44">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="O44">
         <v>1.33</v>
@@ -6250,16 +6250,16 @@
         <v>3.47</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE44">
         <v>1.21</v>
@@ -6291,13 +6291,13 @@
         <v>304</v>
       </c>
       <c r="F45">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G45">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="H45">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="I45">
         <v>1.1</v>
@@ -6306,16 +6306,16 @@
         <v>6.3</v>
       </c>
       <c r="K45">
+        <v>1.5</v>
+      </c>
+      <c r="L45">
+        <v>2.45</v>
+      </c>
+      <c r="M45">
+        <v>2.54</v>
+      </c>
+      <c r="N45">
         <v>1.48</v>
-      </c>
-      <c r="L45">
-        <v>2.48</v>
-      </c>
-      <c r="M45">
-        <v>2.48</v>
-      </c>
-      <c r="N45">
-        <v>1.44</v>
       </c>
       <c r="O45">
         <v>1.57</v>
@@ -6395,13 +6395,13 @@
         <v>305</v>
       </c>
       <c r="F46">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="G46">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="H46">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I46">
         <v>1.05</v>
@@ -6416,10 +6416,10 @@
         <v>3</v>
       </c>
       <c r="M46">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="N46">
-        <v>1.77</v>
+        <v>1.61</v>
       </c>
       <c r="O46">
         <v>1.42</v>
@@ -6499,13 +6499,13 @@
         <v>259</v>
       </c>
       <c r="F47">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="G47">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="H47">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="I47">
         <v>1.04</v>
@@ -6520,10 +6520,10 @@
         <v>4.5</v>
       </c>
       <c r="M47">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="N47">
-        <v>2.3</v>
+        <v>2.03</v>
       </c>
       <c r="O47">
         <v>1.33</v>
@@ -6603,13 +6603,13 @@
         <v>306</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="G48">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="H48">
-        <v>4</v>
+        <v>4.23</v>
       </c>
       <c r="I48">
         <v>1.08</v>
@@ -6627,7 +6627,7 @@
         <v>2.2</v>
       </c>
       <c r="N48">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="O48">
         <v>1.49</v>
@@ -6707,13 +6707,13 @@
         <v>307</v>
       </c>
       <c r="F49">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="G49">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="H49">
-        <v>13</v>
+        <v>11.55</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -6728,10 +6728,10 @@
         <v>5.3</v>
       </c>
       <c r="M49">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="N49">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="O49">
         <v>1.23</v>
@@ -6770,28 +6770,28 @@
         <v>3.4</v>
       </c>
       <c r="AA49">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AC49">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AH49">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="50" spans="1:34">
@@ -6814,10 +6814,10 @@
         <v>2.05</v>
       </c>
       <c r="G50">
-        <v>3.58</v>
+        <v>3.5</v>
       </c>
       <c r="H50">
-        <v>2.9</v>
+        <v>3.11</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -6832,10 +6832,10 @@
         <v>3.94</v>
       </c>
       <c r="M50">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="N50">
-        <v>2.13</v>
+        <v>2.11</v>
       </c>
       <c r="O50">
         <v>1.33</v>
@@ -6874,28 +6874,28 @@
         <v>2.92</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE50">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="51" spans="1:34">
@@ -6915,37 +6915,37 @@
         <v>309</v>
       </c>
       <c r="F51">
-        <v>2.7</v>
+        <v>2.76</v>
       </c>
       <c r="G51">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H51">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="M51">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="N51">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="Q51">
         <v>1.53</v>
@@ -6954,13 +6954,13 @@
         <v>2.38</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="V51">
         <v>1.25</v>
@@ -6978,28 +6978,28 @@
         <v>3</v>
       </c>
       <c r="AA51">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB51">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC51">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD51">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AF51">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AG51">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="52" spans="1:34">
@@ -7123,13 +7123,13 @@
         <v>311</v>
       </c>
       <c r="F53">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G53">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="H53">
-        <v>5.8</v>
+        <v>5.75</v>
       </c>
       <c r="I53">
         <v>1.05</v>
@@ -7144,10 +7144,10 @@
         <v>3.75</v>
       </c>
       <c r="M53">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N53">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="O53">
         <v>1.36</v>
@@ -7186,28 +7186,28 @@
         <v>3.23</v>
       </c>
       <c r="AA53">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AB53">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC53">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD53">
         <v>0</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG53">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="54" spans="1:34">
@@ -7331,13 +7331,13 @@
         <v>313</v>
       </c>
       <c r="F55">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="G55">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H55">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="I55">
         <v>1.01</v>
@@ -7352,10 +7352,10 @@
         <v>3.5</v>
       </c>
       <c r="M55">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="N55">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="O55">
         <v>1.38</v>
@@ -7435,13 +7435,13 @@
         <v>314</v>
       </c>
       <c r="F56">
-        <v>2.14</v>
+        <v>2.45</v>
       </c>
       <c r="G56">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H56">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="I56">
         <v>1.06</v>
@@ -7456,10 +7456,10 @@
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N56">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O56">
         <v>1.41</v>
@@ -7539,13 +7539,13 @@
         <v>315</v>
       </c>
       <c r="F57">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="G57">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H57">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="I57">
         <v>1.01</v>
@@ -7560,10 +7560,10 @@
         <v>3.55</v>
       </c>
       <c r="M57">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="N57">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="O57">
         <v>1.35</v>
@@ -7643,13 +7643,13 @@
         <v>316</v>
       </c>
       <c r="F58">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="G58">
-        <v>3.4</v>
+        <v>3.03</v>
       </c>
       <c r="H58">
-        <v>3.8</v>
+        <v>4.86</v>
       </c>
       <c r="I58">
         <v>1.05</v>
@@ -7664,10 +7664,10 @@
         <v>3.5</v>
       </c>
       <c r="M58">
-        <v>1.9</v>
+        <v>1.99</v>
       </c>
       <c r="N58">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="O58">
         <v>1.4</v>
@@ -7747,13 +7747,13 @@
         <v>317</v>
       </c>
       <c r="F59">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="G59">
-        <v>4.25</v>
+        <v>4.6</v>
       </c>
       <c r="H59">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="I59">
         <v>1.01</v>
@@ -7768,10 +7768,10 @@
         <v>3.54</v>
       </c>
       <c r="M59">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="N59">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="O59">
         <v>1.36</v>
@@ -7854,10 +7854,10 @@
         <v>2.05</v>
       </c>
       <c r="G60">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H60">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I60">
         <v>1.07</v>
@@ -7872,10 +7872,10 @@
         <v>3.1</v>
       </c>
       <c r="M60">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="N60">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O60">
         <v>1.42</v>
@@ -7914,28 +7914,28 @@
         <v>3.18</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF60">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AG60">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH60">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="61" spans="1:34">
@@ -7955,13 +7955,13 @@
         <v>319</v>
       </c>
       <c r="F61">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="G61">
-        <v>3.4</v>
+        <v>3.54</v>
       </c>
       <c r="H61">
-        <v>4.1</v>
+        <v>4.59</v>
       </c>
       <c r="I61">
         <v>1.06</v>
@@ -7976,7 +7976,7 @@
         <v>2.95</v>
       </c>
       <c r="M61">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="N61">
         <v>1.65</v>
@@ -8059,13 +8059,13 @@
         <v>320</v>
       </c>
       <c r="F62">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="G62">
-        <v>3.75</v>
+        <v>3.84</v>
       </c>
       <c r="H62">
-        <v>3.8</v>
+        <v>3.37</v>
       </c>
       <c r="I62">
         <v>1.02</v>
@@ -8080,10 +8080,10 @@
         <v>4.3</v>
       </c>
       <c r="M62">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="N62">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="O62">
         <v>1.33</v>
@@ -8163,13 +8163,13 @@
         <v>321</v>
       </c>
       <c r="F63">
-        <v>2.45</v>
+        <v>2.41</v>
       </c>
       <c r="G63">
-        <v>3.4</v>
+        <v>3.59</v>
       </c>
       <c r="H63">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="I63">
         <v>1.04</v>
@@ -8184,10 +8184,10 @@
         <v>3.75</v>
       </c>
       <c r="M63">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="N63">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="O63">
         <v>1.33</v>
@@ -8267,13 +8267,13 @@
         <v>322</v>
       </c>
       <c r="F64">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="G64">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="H64">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I64">
         <v>1.06</v>
@@ -8288,10 +8288,10 @@
         <v>3.58</v>
       </c>
       <c r="M64">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="N64">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="O64">
         <v>1.4</v>
@@ -8371,13 +8371,13 @@
         <v>323</v>
       </c>
       <c r="F65">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="G65">
-        <v>3.5</v>
+        <v>3.87</v>
       </c>
       <c r="H65">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="I65">
         <v>1.03</v>
@@ -8392,10 +8392,10 @@
         <v>4</v>
       </c>
       <c r="M65">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="N65">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="O65">
         <v>1.33</v>
@@ -8579,13 +8579,13 @@
         <v>325</v>
       </c>
       <c r="F67">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="G67">
-        <v>3.75</v>
+        <v>3.99</v>
       </c>
       <c r="H67">
-        <v>4.6</v>
+        <v>5.29</v>
       </c>
       <c r="I67">
         <v>1.03</v>
@@ -8600,10 +8600,10 @@
         <v>3.75</v>
       </c>
       <c r="M67">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="N67">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="O67">
         <v>1.34</v>
@@ -8683,13 +8683,13 @@
         <v>326</v>
       </c>
       <c r="F68">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="G68">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="H68">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="I68">
         <v>1.06</v>
@@ -8704,10 +8704,10 @@
         <v>3.2</v>
       </c>
       <c r="M68">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="N68">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
         <v>1.41</v>
@@ -8787,13 +8787,13 @@
         <v>327</v>
       </c>
       <c r="F69">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="G69">
-        <v>7.25</v>
+        <v>8.33</v>
       </c>
       <c r="H69">
-        <v>16</v>
+        <v>19.25</v>
       </c>
       <c r="I69">
         <v>1.02</v>
@@ -8808,10 +8808,10 @@
         <v>5.5</v>
       </c>
       <c r="M69">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="N69">
-        <v>2.55</v>
+        <v>2.54</v>
       </c>
       <c r="O69">
         <v>1.29</v>
@@ -8891,13 +8891,13 @@
         <v>328</v>
       </c>
       <c r="F70">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="G70">
-        <v>3.15</v>
+        <v>3.21</v>
       </c>
       <c r="H70">
-        <v>2.63</v>
+        <v>2.68</v>
       </c>
       <c r="I70">
         <v>1.07</v>
@@ -8912,10 +8912,10 @@
         <v>2.95</v>
       </c>
       <c r="M70">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="N70">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O70">
         <v>1.45</v>
@@ -8995,13 +8995,13 @@
         <v>329</v>
       </c>
       <c r="F71">
-        <v>2.65</v>
+        <v>2.92</v>
       </c>
       <c r="G71">
-        <v>3.4</v>
+        <v>3.57</v>
       </c>
       <c r="H71">
-        <v>2.55</v>
+        <v>2.29</v>
       </c>
       <c r="I71">
         <v>1.03</v>
@@ -9016,10 +9016,10 @@
         <v>4</v>
       </c>
       <c r="M71">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="N71">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="O71">
         <v>1.33</v>
@@ -9099,13 +9099,13 @@
         <v>330</v>
       </c>
       <c r="F72">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G72">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H72">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="I72">
         <v>1.06</v>
@@ -9120,10 +9120,10 @@
         <v>3.1</v>
       </c>
       <c r="M72">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="N72">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="O72">
         <v>1.42</v>
@@ -9171,7 +9171,7 @@
         <v>2.2</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE72">
         <v>1.32</v>
@@ -9203,13 +9203,13 @@
         <v>331</v>
       </c>
       <c r="F73">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G73">
-        <v>3.25</v>
+        <v>3.48</v>
       </c>
       <c r="H73">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="I73">
         <v>1.05</v>
@@ -9224,10 +9224,10 @@
         <v>3.25</v>
       </c>
       <c r="M73">
-        <v>2.1</v>
+        <v>1.88</v>
       </c>
       <c r="N73">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="O73">
         <v>1.39</v>
@@ -9275,7 +9275,7 @@
         <v>1.95</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE73">
         <v>1.32</v>
@@ -9307,13 +9307,13 @@
         <v>332</v>
       </c>
       <c r="F74">
-        <v>3.55</v>
+        <v>3.27</v>
       </c>
       <c r="G74">
-        <v>3.35</v>
+        <v>3.33</v>
       </c>
       <c r="H74">
-        <v>2.05</v>
+        <v>2.29</v>
       </c>
       <c r="I74">
         <v>1.05</v>
@@ -9328,10 +9328,10 @@
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="N74">
-        <v>1.76</v>
+        <v>1.86</v>
       </c>
       <c r="O74">
         <v>1.36</v>
@@ -9379,7 +9379,7 @@
         <v>1.91</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE74">
         <v>1.29</v>
@@ -9411,13 +9411,13 @@
         <v>333</v>
       </c>
       <c r="F75">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G75">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="I75">
         <v>1.05</v>
@@ -9432,10 +9432,10 @@
         <v>3.5</v>
       </c>
       <c r="M75">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="N75">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="O75">
         <v>1.38</v>
@@ -9515,13 +9515,13 @@
         <v>334</v>
       </c>
       <c r="F76">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G76">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H76">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="I76">
         <v>1.05</v>
@@ -9536,10 +9536,10 @@
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="N76">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="O76">
         <v>1.39</v>
@@ -9619,13 +9619,13 @@
         <v>335</v>
       </c>
       <c r="F77">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="G77">
-        <v>4.8</v>
+        <v>5.64</v>
       </c>
       <c r="H77">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I77">
         <v>1.02</v>
@@ -9640,10 +9640,10 @@
         <v>4.5</v>
       </c>
       <c r="M77">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="N77">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O77">
         <v>1.28</v>
@@ -9691,7 +9691,7 @@
         <v>5.6</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AE77">
         <v>1.29</v>
@@ -9723,10 +9723,10 @@
         <v>336</v>
       </c>
       <c r="F78">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="G78">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H78">
         <v>2.75</v>
@@ -9744,10 +9744,10 @@
         <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
         <v>1.39</v>
@@ -9827,13 +9827,13 @@
         <v>337</v>
       </c>
       <c r="F79">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="G79">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="H79">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I79">
         <v>1.04</v>
@@ -9848,10 +9848,10 @@
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="N79">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="O79">
         <v>1.34</v>
@@ -9899,7 +9899,7 @@
         <v>2.78</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE79">
         <v>1.35</v>
@@ -9934,10 +9934,10 @@
         <v>1.9</v>
       </c>
       <c r="G80">
-        <v>3.45</v>
+        <v>3.41</v>
       </c>
       <c r="H80">
-        <v>4.1</v>
+        <v>4.12</v>
       </c>
       <c r="I80">
         <v>1.06</v>
@@ -9952,10 +9952,10 @@
         <v>3</v>
       </c>
       <c r="M80">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="O80">
         <v>1.42</v>
@@ -10035,13 +10035,13 @@
         <v>339</v>
       </c>
       <c r="F81">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="G81">
-        <v>3.9</v>
+        <v>3.76</v>
       </c>
       <c r="H81">
-        <v>4.8</v>
+        <v>4.43</v>
       </c>
       <c r="I81">
         <v>1.03</v>
@@ -10056,10 +10056,10 @@
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="N81">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="O81">
         <v>1.34</v>
@@ -10139,13 +10139,13 @@
         <v>340</v>
       </c>
       <c r="F82">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G82">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="H82">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I82">
         <v>1.05</v>
@@ -10160,10 +10160,10 @@
         <v>3.25</v>
       </c>
       <c r="M82">
-        <v>2.12</v>
+        <v>1.95</v>
       </c>
       <c r="N82">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="O82">
         <v>1.39</v>
@@ -10211,7 +10211,7 @@
         <v>2.05</v>
       </c>
       <c r="AD82">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE82">
         <v>1.22</v>
@@ -10249,7 +10249,7 @@
         <v>3.1</v>
       </c>
       <c r="H83">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="I83">
         <v>1.07</v>
@@ -10264,10 +10264,10 @@
         <v>3</v>
       </c>
       <c r="M83">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="N83">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O83">
         <v>1.5</v>
@@ -10347,13 +10347,13 @@
         <v>342</v>
       </c>
       <c r="F84">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="G84">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="H84">
-        <v>4.4</v>
+        <v>4.47</v>
       </c>
       <c r="I84">
         <v>1.08</v>
@@ -10368,10 +10368,10 @@
         <v>2.8</v>
       </c>
       <c r="M84">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="N84">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O84">
         <v>1.5</v>
@@ -10451,13 +10451,13 @@
         <v>343</v>
       </c>
       <c r="F85">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="G85">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H85">
-        <v>3.95</v>
+        <v>3.98</v>
       </c>
       <c r="I85">
         <v>1.05</v>
@@ -10472,7 +10472,7 @@
         <v>3</v>
       </c>
       <c r="M85">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="N85">
         <v>1.61</v>
@@ -10523,7 +10523,7 @@
         <v>3.19</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE85">
         <v>1.33</v>
@@ -10555,13 +10555,13 @@
         <v>344</v>
       </c>
       <c r="F86">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="G86">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H86">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="I86">
         <v>1.08</v>
@@ -10576,10 +10576,10 @@
         <v>2.9</v>
       </c>
       <c r="M86">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N86">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="O86">
         <v>1.5</v>
@@ -10659,13 +10659,13 @@
         <v>345</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="G87">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H87">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I87">
         <v>1.06</v>
@@ -10683,7 +10683,7 @@
         <v>2.25</v>
       </c>
       <c r="N87">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O87">
         <v>1.44</v>
@@ -10769,7 +10769,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I88">
         <v>1.04</v>
@@ -10784,10 +10784,10 @@
         <v>3.3</v>
       </c>
       <c r="M88">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="N88">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="O88">
         <v>1.4</v>
@@ -10867,13 +10867,13 @@
         <v>347</v>
       </c>
       <c r="F89">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="G89">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H89">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="I89">
         <v>1.07</v>
@@ -10888,10 +10888,10 @@
         <v>3</v>
       </c>
       <c r="M89">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="N89">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O89">
         <v>1.44</v>
@@ -10974,10 +10974,10 @@
         <v>2.3</v>
       </c>
       <c r="G90">
+        <v>3.1</v>
+      </c>
+      <c r="H90">
         <v>3.3</v>
-      </c>
-      <c r="H90">
-        <v>3</v>
       </c>
       <c r="I90">
         <v>1.07</v>
@@ -10992,10 +10992,10 @@
         <v>2.85</v>
       </c>
       <c r="M90">
-        <v>2.16</v>
+        <v>2.3</v>
       </c>
       <c r="N90">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="O90">
         <v>1.5</v>
@@ -11075,13 +11075,13 @@
         <v>349</v>
       </c>
       <c r="F91">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="G91">
         <v>3.75</v>
       </c>
       <c r="H91">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I91">
         <v>1.05</v>
@@ -11096,10 +11096,10 @@
         <v>3</v>
       </c>
       <c r="M91">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="O91">
         <v>1.43</v>
@@ -11179,13 +11179,13 @@
         <v>350</v>
       </c>
       <c r="F92">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G92">
-        <v>3.7</v>
+        <v>3.93</v>
       </c>
       <c r="H92">
-        <v>5.25</v>
+        <v>5.46</v>
       </c>
       <c r="I92">
         <v>1.05</v>
@@ -11200,10 +11200,10 @@
         <v>2.9</v>
       </c>
       <c r="M92">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="N92">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="O92">
         <v>1.44</v>
@@ -11286,10 +11286,10 @@
         <v>1.75</v>
       </c>
       <c r="G93">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H93">
-        <v>4.25</v>
+        <v>4.8</v>
       </c>
       <c r="I93">
         <v>1.05</v>
@@ -11304,10 +11304,10 @@
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N93">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="O93">
         <v>1.4</v>
@@ -11387,13 +11387,13 @@
         <v>352</v>
       </c>
       <c r="F94">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G94">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H94">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="I94">
         <v>1.09</v>
@@ -11408,10 +11408,10 @@
         <v>2.5</v>
       </c>
       <c r="M94">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N94">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O94">
         <v>1.53</v>
@@ -11491,13 +11491,13 @@
         <v>353</v>
       </c>
       <c r="F95">
-        <v>5.75</v>
+        <v>5.66</v>
       </c>
       <c r="G95">
-        <v>3.85</v>
+        <v>3.88</v>
       </c>
       <c r="H95">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="I95">
         <v>1.06</v>
@@ -11512,10 +11512,10 @@
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="N95">
-        <v>1.78</v>
+        <v>2.01</v>
       </c>
       <c r="O95">
         <v>1.42</v>
@@ -11595,13 +11595,13 @@
         <v>354</v>
       </c>
       <c r="F96">
-        <v>3.15</v>
+        <v>3.42</v>
       </c>
       <c r="G96">
-        <v>3.2</v>
+        <v>3.34</v>
       </c>
       <c r="H96">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="I96">
         <v>1.05</v>
@@ -11616,10 +11616,10 @@
         <v>2.9</v>
       </c>
       <c r="M96">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="O96">
         <v>1.5</v>
@@ -11699,13 +11699,13 @@
         <v>355</v>
       </c>
       <c r="F97">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="G97">
-        <v>3.5</v>
+        <v>3.41</v>
       </c>
       <c r="H97">
-        <v>3.7</v>
+        <v>3.79</v>
       </c>
       <c r="I97">
         <v>1.04</v>
@@ -11720,7 +11720,7 @@
         <v>3.1</v>
       </c>
       <c r="M97">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
         <v>1.72</v>
@@ -11803,13 +11803,13 @@
         <v>356</v>
       </c>
       <c r="F98">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="G98">
-        <v>4.2</v>
+        <v>4.41</v>
       </c>
       <c r="H98">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="I98">
         <v>1.01</v>
@@ -11824,10 +11824,10 @@
         <v>3.9</v>
       </c>
       <c r="M98">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="N98">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="O98">
         <v>1.33</v>
@@ -11907,13 +11907,13 @@
         <v>357</v>
       </c>
       <c r="F99">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="G99">
-        <v>3.25</v>
+        <v>3.13</v>
       </c>
       <c r="H99">
-        <v>2.95</v>
+        <v>3.09</v>
       </c>
       <c r="I99">
         <v>1.03</v>
@@ -11928,10 +11928,10 @@
         <v>2.88</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="N99">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="O99">
         <v>1.45</v>
@@ -12011,13 +12011,13 @@
         <v>358</v>
       </c>
       <c r="F100">
-        <v>2.8</v>
+        <v>3.04</v>
       </c>
       <c r="G100">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="H100">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="I100">
         <v>1.04</v>
@@ -12032,10 +12032,10 @@
         <v>3.1</v>
       </c>
       <c r="M100">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N100">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="O100">
         <v>1.42</v>
@@ -12115,13 +12115,13 @@
         <v>359</v>
       </c>
       <c r="F101">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="G101">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="H101">
-        <v>3.15</v>
+        <v>3.46</v>
       </c>
       <c r="I101">
         <v>1.03</v>
@@ -12136,10 +12136,10 @@
         <v>3.1</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N101">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O101">
         <v>1.4</v>
@@ -12219,13 +12219,13 @@
         <v>360</v>
       </c>
       <c r="F102">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G102">
-        <v>3.45</v>
+        <v>3.39</v>
       </c>
       <c r="H102">
-        <v>4.1</v>
+        <v>5.06</v>
       </c>
       <c r="I102">
         <v>1.05</v>
@@ -12240,10 +12240,10 @@
         <v>2.8</v>
       </c>
       <c r="M102">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="N102">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="O102">
         <v>1.5</v>
@@ -12323,13 +12323,13 @@
         <v>361</v>
       </c>
       <c r="F103">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G103">
-        <v>3</v>
+        <v>3.17</v>
       </c>
       <c r="H103">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="I103">
         <v>1.06</v>
@@ -12344,10 +12344,10 @@
         <v>2.8</v>
       </c>
       <c r="M103">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N103">
-        <v>2.07</v>
+        <v>1.62</v>
       </c>
       <c r="O103">
         <v>1.47</v>
@@ -12427,13 +12427,13 @@
         <v>362</v>
       </c>
       <c r="F104">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="G104">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H104">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I104">
         <v>1.1</v>
@@ -12448,10 +12448,10 @@
         <v>2.58</v>
       </c>
       <c r="M104">
-        <v>2.48</v>
+        <v>2.35</v>
       </c>
       <c r="N104">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="O104">
         <v>1.55</v>
@@ -12511,7 +12511,7 @@
         <v>2.88</v>
       </c>
       <c r="AH104">
-        <v>0</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="105" spans="1:34">
@@ -12531,13 +12531,13 @@
         <v>363</v>
       </c>
       <c r="F105">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G105">
-        <v>6.5</v>
+        <v>6.16</v>
       </c>
       <c r="H105">
-        <v>12</v>
+        <v>11.19</v>
       </c>
       <c r="I105">
         <v>1.02</v>
@@ -12552,10 +12552,10 @@
         <v>5</v>
       </c>
       <c r="M105">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="N105">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="O105">
         <v>1.29</v>
@@ -12635,13 +12635,13 @@
         <v>364</v>
       </c>
       <c r="F106">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="G106">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="H106">
-        <v>3.75</v>
+        <v>3.82</v>
       </c>
       <c r="I106">
         <v>1.06</v>
@@ -12656,10 +12656,10 @@
         <v>2.95</v>
       </c>
       <c r="M106">
-        <v>1.94</v>
+        <v>2.08</v>
       </c>
       <c r="N106">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="O106">
         <v>1.5</v>
@@ -12739,13 +12739,13 @@
         <v>365</v>
       </c>
       <c r="F107">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G107">
-        <v>3.7</v>
+        <v>3.82</v>
       </c>
       <c r="H107">
-        <v>4.4</v>
+        <v>4.14</v>
       </c>
       <c r="I107">
         <v>1.04</v>
@@ -12760,10 +12760,10 @@
         <v>3.6</v>
       </c>
       <c r="M107">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="N107">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="O107">
         <v>1.4</v>
@@ -12843,13 +12843,13 @@
         <v>366</v>
       </c>
       <c r="F108">
-        <v>3.2</v>
+        <v>3.16</v>
       </c>
       <c r="G108">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="H108">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="I108">
         <v>1.03</v>
@@ -12864,10 +12864,10 @@
         <v>3.38</v>
       </c>
       <c r="M108">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="N108">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="O108">
         <v>1.44</v>
@@ -12947,13 +12947,13 @@
         <v>367</v>
       </c>
       <c r="F109">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="G109">
-        <v>4</v>
+        <v>4.35</v>
       </c>
       <c r="H109">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="I109">
         <v>1.05</v>
@@ -12968,10 +12968,10 @@
         <v>3.8</v>
       </c>
       <c r="M109">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="N109">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="O109">
         <v>1.36</v>
@@ -13051,13 +13051,13 @@
         <v>368</v>
       </c>
       <c r="F110">
-        <v>9.07</v>
+        <v>10</v>
       </c>
       <c r="G110">
-        <v>4.46</v>
+        <v>5</v>
       </c>
       <c r="H110">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="I110">
         <v>1.01</v>
@@ -13155,13 +13155,13 @@
         <v>369</v>
       </c>
       <c r="F111">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="G111">
         <v>3.25</v>
       </c>
       <c r="H111">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="I111">
         <v>1.04</v>
@@ -13179,7 +13179,7 @@
         <v>1.85</v>
       </c>
       <c r="N111">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="O111">
         <v>1.37</v>
@@ -13218,13 +13218,13 @@
         <v>2.73</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AB111">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AC111">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD111">
         <v>1.27</v>
@@ -13259,13 +13259,13 @@
         <v>370</v>
       </c>
       <c r="F112">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="G112">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="H112">
-        <v>2.43</v>
+        <v>2.7</v>
       </c>
       <c r="I112">
         <v>1.12</v>
@@ -13274,13 +13274,13 @@
         <v>6</v>
       </c>
       <c r="K112">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="L112">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M112">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N112">
         <v>1.36</v>
@@ -13363,13 +13363,13 @@
         <v>371</v>
       </c>
       <c r="F113">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="G113">
-        <v>3.6</v>
+        <v>3.71</v>
       </c>
       <c r="H113">
-        <v>2.1</v>
+        <v>2.01</v>
       </c>
       <c r="I113">
         <v>1.03</v>
@@ -13384,10 +13384,10 @@
         <v>4</v>
       </c>
       <c r="M113">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="N113">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="O113">
         <v>1.33</v>
@@ -13467,13 +13467,13 @@
         <v>372</v>
       </c>
       <c r="F114">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G114">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H114">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I114">
         <v>1.11</v>
@@ -13488,10 +13488,10 @@
         <v>2.55</v>
       </c>
       <c r="M114">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="N114">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="O114">
         <v>1.54</v>
@@ -13592,10 +13592,10 @@
         <v>3</v>
       </c>
       <c r="M115">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="N115">
-        <v>1.68</v>
+        <v>1.61</v>
       </c>
       <c r="O115">
         <v>1.4</v>
@@ -13634,25 +13634,25 @@
         <v>3.23</v>
       </c>
       <c r="AA115">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC115">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AD115">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AE115">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AF115">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AG115">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AH115">
         <v>0</v>
@@ -13675,13 +13675,13 @@
         <v>374</v>
       </c>
       <c r="F116">
-        <v>2.43</v>
+        <v>2.94</v>
       </c>
       <c r="G116">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="H116">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="I116">
         <v>1.08</v>
@@ -13696,10 +13696,10 @@
         <v>3.07</v>
       </c>
       <c r="M116">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="N116">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="O116">
         <v>1.46</v>
@@ -13782,10 +13782,10 @@
         <v>2.1</v>
       </c>
       <c r="G117">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H117">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I117">
         <v>1.08</v>
@@ -13800,10 +13800,10 @@
         <v>2.8</v>
       </c>
       <c r="M117">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="N117">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="O117">
         <v>1.5</v>
@@ -13842,28 +13842,28 @@
         <v>3.12</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC117">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AD117">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AE117">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AF117">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG117">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AH117">
-        <v>0</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="118" spans="1:34">
@@ -13883,13 +13883,13 @@
         <v>376</v>
       </c>
       <c r="F118">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G118">
         <v>3.2</v>
       </c>
       <c r="H118">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="I118">
         <v>1.05</v>
@@ -13946,13 +13946,13 @@
         <v>3.37</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB118">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC118">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="AD118">
         <v>0</v>
@@ -13961,13 +13961,13 @@
         <v>0</v>
       </c>
       <c r="AF118">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG118">
         <v>1.95</v>
       </c>
       <c r="AH118">
-        <v>0</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="119" spans="1:34">
@@ -13990,10 +13990,10 @@
         <v>2.05</v>
       </c>
       <c r="G119">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H119">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I119">
         <v>1.05</v>
@@ -14050,13 +14050,13 @@
         <v>2.92</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB119">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC119">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AD119">
         <v>0</v>
@@ -14065,13 +14065,13 @@
         <v>0</v>
       </c>
       <c r="AF119">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG119">
         <v>1.93</v>
       </c>
       <c r="AH119">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="120" spans="1:34">
@@ -14091,13 +14091,13 @@
         <v>378</v>
       </c>
       <c r="F120">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G120">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H120">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I120">
         <v>1.06</v>
@@ -14154,25 +14154,25 @@
         <v>2.94</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AB120">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC120">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AD120">
         <v>0</v>
       </c>
       <c r="AE120">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF120">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG120">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH120">
         <v>0</v>
@@ -14195,13 +14195,13 @@
         <v>379</v>
       </c>
       <c r="F121">
+        <v>3.1</v>
+      </c>
+      <c r="G121">
         <v>3.4</v>
       </c>
-      <c r="G121">
-        <v>3.25</v>
-      </c>
       <c r="H121">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="I121">
         <v>1.04</v>
@@ -14258,13 +14258,13 @@
         <v>3.12</v>
       </c>
       <c r="AA121">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC121">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AD121">
         <v>0</v>
@@ -14273,13 +14273,13 @@
         <v>0</v>
       </c>
       <c r="AF121">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG121">
         <v>1.95</v>
       </c>
       <c r="AH121">
-        <v>0</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="122" spans="1:34">
@@ -14299,13 +14299,13 @@
         <v>380</v>
       </c>
       <c r="F122">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="G122">
         <v>3.4</v>
       </c>
       <c r="H122">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I122">
         <v>1.06</v>
@@ -14362,25 +14362,25 @@
         <v>4.24</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC122">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AD122">
         <v>0</v>
       </c>
       <c r="AE122">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF122">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG122">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AH122">
         <v>0</v>
@@ -14403,10 +14403,10 @@
         <v>381</v>
       </c>
       <c r="F123">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="G123">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H123">
         <v>2.25</v>
@@ -14466,25 +14466,25 @@
         <v>3.37</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AB123">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC123">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD123">
         <v>0</v>
       </c>
       <c r="AE123">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF123">
         <v>1.85</v>
       </c>
       <c r="AG123">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AH123">
         <v>0</v>
@@ -14507,13 +14507,13 @@
         <v>382</v>
       </c>
       <c r="F124">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G124">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="H124">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="I124">
         <v>1.06</v>
@@ -14528,10 +14528,10 @@
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="N124">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="O124">
         <v>1.4</v>
@@ -14611,13 +14611,13 @@
         <v>254</v>
       </c>
       <c r="F125">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="G125">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H125">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="I125">
         <v>1.04</v>
@@ -14632,10 +14632,10 @@
         <v>4.5</v>
       </c>
       <c r="M125">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="N125">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="O125">
         <v>1.3</v>
@@ -14715,13 +14715,13 @@
         <v>383</v>
       </c>
       <c r="F126">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="G126">
-        <v>3.45</v>
+        <v>3.74</v>
       </c>
       <c r="H126">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -14736,10 +14736,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="N126">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -14819,10 +14819,10 @@
         <v>384</v>
       </c>
       <c r="F127">
-        <v>5.25</v>
+        <v>5.85</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>4.38</v>
       </c>
       <c r="H127">
         <v>1.55</v>
@@ -14840,10 +14840,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="N127">
-        <v>2.17</v>
+        <v>2.12</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -14923,13 +14923,13 @@
         <v>385</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G128">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H128">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -14944,10 +14944,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -15048,10 +15048,10 @@
         <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="N129">
-        <v>1.9</v>
+        <v>1.72</v>
       </c>
       <c r="O129">
         <v>1.4</v>
@@ -15099,7 +15099,7 @@
         <v>2.34</v>
       </c>
       <c r="AD129">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE129">
         <v>1.29</v>
@@ -15131,10 +15131,10 @@
         <v>387</v>
       </c>
       <c r="F130">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G130">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H130">
         <v>2.4</v>
@@ -15194,25 +15194,25 @@
         <v>3.53</v>
       </c>
       <c r="AA130">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC130">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AD130">
         <v>0</v>
       </c>
       <c r="AE130">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF130">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG130">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AH130">
         <v>0</v>
@@ -15235,13 +15235,13 @@
         <v>388</v>
       </c>
       <c r="F131">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="G131">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H131">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="I131">
         <v>1.02</v>
@@ -15256,10 +15256,10 @@
         <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="N131">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O131">
         <v>1.39</v>
@@ -15298,28 +15298,28 @@
         <v>2.53</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC131">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="AD131">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE131">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AF131">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AG131">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AH131">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="132" spans="1:34">
@@ -15339,13 +15339,13 @@
         <v>389</v>
       </c>
       <c r="F132">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H132">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="I132">
         <v>1.03</v>
@@ -15443,13 +15443,13 @@
         <v>390</v>
       </c>
       <c r="F133">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="G133">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H133">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="I133">
         <v>1.02</v>
@@ -15464,10 +15464,10 @@
         <v>5.6</v>
       </c>
       <c r="M133">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="N133">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O133">
         <v>1.2</v>
@@ -15547,13 +15547,13 @@
         <v>391</v>
       </c>
       <c r="F134">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>3.89</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>4.93</v>
       </c>
       <c r="I134">
         <v>1.03</v>
@@ -15568,10 +15568,10 @@
         <v>4</v>
       </c>
       <c r="M134">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="N134">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="O134">
         <v>1.33</v>
@@ -15755,13 +15755,13 @@
         <v>392</v>
       </c>
       <c r="F136">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="G136">
-        <v>3.65</v>
+        <v>3.83</v>
       </c>
       <c r="H136">
-        <v>3.65</v>
+        <v>4.13</v>
       </c>
       <c r="I136">
         <v>1.02</v>
@@ -15776,10 +15776,10 @@
         <v>4.2</v>
       </c>
       <c r="M136">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="N136">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="O136">
         <v>1.32</v>
@@ -15859,13 +15859,13 @@
         <v>393</v>
       </c>
       <c r="F137">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G137">
-        <v>4.6</v>
+        <v>4.69</v>
       </c>
       <c r="H137">
-        <v>7.5</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="I137">
         <v>1.03</v>
@@ -15880,10 +15880,10 @@
         <v>4</v>
       </c>
       <c r="M137">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="N137">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="O137">
         <v>1.35</v>
@@ -15963,13 +15963,13 @@
         <v>394</v>
       </c>
       <c r="F138">
-        <v>3.6</v>
+        <v>3.58</v>
       </c>
       <c r="G138">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="H138">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="I138">
         <v>1.09</v>
@@ -15984,10 +15984,10 @@
         <v>2.3</v>
       </c>
       <c r="M138">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="N138">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="O138">
         <v>1.55</v>
@@ -16067,13 +16067,13 @@
         <v>395</v>
       </c>
       <c r="F139">
-        <v>2.35</v>
+        <v>2.23</v>
       </c>
       <c r="G139">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="H139">
-        <v>3.4</v>
+        <v>4.06</v>
       </c>
       <c r="I139">
         <v>1.15</v>
@@ -16082,16 +16082,16 @@
         <v>5.5</v>
       </c>
       <c r="K139">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="L139">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="M139">
-        <v>3.1</v>
+        <v>2.89</v>
       </c>
       <c r="N139">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="O139">
         <v>1.63</v>
@@ -16171,13 +16171,13 @@
         <v>396</v>
       </c>
       <c r="F140">
-        <v>6.25</v>
+        <v>5.17</v>
       </c>
       <c r="G140">
-        <v>5</v>
+        <v>5.37</v>
       </c>
       <c r="H140">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="I140">
         <v>1.01</v>
@@ -16192,10 +16192,10 @@
         <v>5.45</v>
       </c>
       <c r="M140">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="N140">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="O140">
         <v>1.22</v>
@@ -16275,13 +16275,13 @@
         <v>397</v>
       </c>
       <c r="F141">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="G141">
-        <v>3.4</v>
+        <v>3.14</v>
       </c>
       <c r="H141">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I141">
         <v>1.08</v>
@@ -16290,16 +16290,16 @@
         <v>7</v>
       </c>
       <c r="K141">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="L141">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="M141">
-        <v>2.51</v>
+        <v>2.74</v>
       </c>
       <c r="N141">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="O141">
         <v>1.62</v>
@@ -16379,13 +16379,13 @@
         <v>398</v>
       </c>
       <c r="F142">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="G142">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="H142">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="I142">
         <v>1.07</v>
@@ -16400,10 +16400,10 @@
         <v>3.35</v>
       </c>
       <c r="M142">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="N142">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="O142">
         <v>1.4</v>
@@ -16483,13 +16483,13 @@
         <v>399</v>
       </c>
       <c r="F143">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="G143">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="H143">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
       <c r="I143">
         <v>1.04</v>
@@ -16504,10 +16504,10 @@
         <v>3.67</v>
       </c>
       <c r="M143">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="N143">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="O143">
         <v>1.38</v>
@@ -16587,13 +16587,13 @@
         <v>400</v>
       </c>
       <c r="F144">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="G144">
-        <v>3.25</v>
+        <v>3.58</v>
       </c>
       <c r="H144">
-        <v>2.14</v>
+        <v>2.3</v>
       </c>
       <c r="I144">
         <v>1.04</v>
@@ -16608,10 +16608,10 @@
         <v>3.4</v>
       </c>
       <c r="M144">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="N144">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="O144">
         <v>1.36</v>
@@ -16691,13 +16691,13 @@
         <v>401</v>
       </c>
       <c r="F145">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="G145">
-        <v>3.05</v>
+        <v>3.31</v>
       </c>
       <c r="H145">
-        <v>4</v>
+        <v>4.85</v>
       </c>
       <c r="I145">
         <v>1.09</v>
@@ -16712,7 +16712,7 @@
         <v>2.46</v>
       </c>
       <c r="M145">
-        <v>2.5</v>
+        <v>2.41</v>
       </c>
       <c r="N145">
         <v>1.5</v>
@@ -16754,25 +16754,25 @@
         <v>2.74</v>
       </c>
       <c r="AA145">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB145">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC145">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD145">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AE145">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AF145">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AG145">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AH145">
         <v>0</v>
@@ -16795,13 +16795,13 @@
         <v>402</v>
       </c>
       <c r="F146">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G146">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H146">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="I146">
         <v>1.08</v>
@@ -16819,7 +16819,7 @@
         <v>2.25</v>
       </c>
       <c r="N146">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="O146">
         <v>1.5</v>
@@ -16858,28 +16858,28 @@
         <v>2.93</v>
       </c>
       <c r="AA146">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB146">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC146">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AD146">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE146">
         <v>1.85</v>
       </c>
       <c r="AF146">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG146">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH146">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="147" spans="1:34">
@@ -16899,13 +16899,13 @@
         <v>403</v>
       </c>
       <c r="F147">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="G147">
-        <v>3.3</v>
+        <v>3.48</v>
       </c>
       <c r="H147">
-        <v>3.8</v>
+        <v>4.11</v>
       </c>
       <c r="I147">
         <v>1.08</v>
@@ -16920,10 +16920,10 @@
         <v>2.85</v>
       </c>
       <c r="M147">
-        <v>2.16</v>
+        <v>2.11</v>
       </c>
       <c r="N147">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="O147">
         <v>1.5</v>
@@ -16962,28 +16962,28 @@
         <v>2.76</v>
       </c>
       <c r="AA147">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AB147">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC147">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AD147">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AE147">
         <v>1.83</v>
       </c>
       <c r="AF147">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AG147">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AH147">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="148" spans="1:34">
@@ -17003,13 +17003,13 @@
         <v>404</v>
       </c>
       <c r="F148">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="G148">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="H148">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="I148">
         <v>1.07</v>
@@ -17024,10 +17024,10 @@
         <v>3.3</v>
       </c>
       <c r="M148">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="N148">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="O148">
         <v>1.44</v>
@@ -17066,28 +17066,28 @@
         <v>2.82</v>
       </c>
       <c r="AA148">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AB148">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AC148">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD148">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE148">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF148">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AG148">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AH148">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="149" spans="1:34">
@@ -17107,13 +17107,13 @@
         <v>405</v>
       </c>
       <c r="F149">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>3.12</v>
       </c>
       <c r="H149">
-        <v>3.05</v>
+        <v>3.33</v>
       </c>
       <c r="I149">
         <v>1.1</v>
@@ -17128,10 +17128,10 @@
         <v>2.71</v>
       </c>
       <c r="M149">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="N149">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="O149">
         <v>1.52</v>
@@ -17170,28 +17170,28 @@
         <v>2.44</v>
       </c>
       <c r="AA149">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AB149">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC149">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD149">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE149">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF149">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AG149">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH149">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="150" spans="1:34">
@@ -17211,13 +17211,13 @@
         <v>406</v>
       </c>
       <c r="F150">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="G150">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>4.47</v>
       </c>
       <c r="I150">
         <v>1.1</v>
@@ -17232,10 +17232,10 @@
         <v>2.64</v>
       </c>
       <c r="M150">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="N150">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="O150">
         <v>1.55</v>
@@ -17274,28 +17274,28 @@
         <v>2.85</v>
       </c>
       <c r="AA150">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB150">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC150">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD150">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AE150">
         <v>1.83</v>
       </c>
       <c r="AF150">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG150">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="AH150">
-        <v>0</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="151" spans="1:34">
@@ -17315,13 +17315,13 @@
         <v>407</v>
       </c>
       <c r="F151">
-        <v>2.28</v>
+        <v>2.42</v>
       </c>
       <c r="G151">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="H151">
-        <v>3.25</v>
+        <v>3.39</v>
       </c>
       <c r="I151">
         <v>1.12</v>
@@ -17333,13 +17333,13 @@
         <v>1.53</v>
       </c>
       <c r="L151">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="M151">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="N151">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="O151">
         <v>1.6</v>
@@ -17378,28 +17378,28 @@
         <v>2.29</v>
       </c>
       <c r="AA151">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB151">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC151">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD151">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AE151">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AF151">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG151">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AH151">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="152" spans="1:34">
@@ -17419,13 +17419,13 @@
         <v>408</v>
       </c>
       <c r="F152">
-        <v>1.65</v>
+        <v>1.59</v>
       </c>
       <c r="G152">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="H152">
-        <v>5.4</v>
+        <v>6.86</v>
       </c>
       <c r="I152">
         <v>1.09</v>
@@ -17440,10 +17440,10 @@
         <v>2.71</v>
       </c>
       <c r="M152">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="N152">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O152">
         <v>1.52</v>
@@ -17482,28 +17482,28 @@
         <v>2.69</v>
       </c>
       <c r="AA152">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AB152">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC152">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AD152">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE152">
         <v>1.88</v>
       </c>
       <c r="AF152">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG152">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AH152">
-        <v>0</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="153" spans="1:34">
@@ -17523,13 +17523,13 @@
         <v>409</v>
       </c>
       <c r="F153">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G153">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H153">
-        <v>4.55</v>
+        <v>4.2</v>
       </c>
       <c r="I153">
         <v>1.1</v>
@@ -17544,10 +17544,10 @@
         <v>2.64</v>
       </c>
       <c r="M153">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="N153">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="O153">
         <v>1.47</v>
@@ -17607,7 +17607,7 @@
         <v>3.42</v>
       </c>
       <c r="AH153">
-        <v>0</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="154" spans="1:34">
@@ -17627,13 +17627,13 @@
         <v>410</v>
       </c>
       <c r="F154">
-        <v>8.5</v>
+        <v>8.35</v>
       </c>
       <c r="G154">
-        <v>4.8</v>
+        <v>4.98</v>
       </c>
       <c r="H154">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="I154">
         <v>1.02</v>
@@ -17648,10 +17648,10 @@
         <v>3.82</v>
       </c>
       <c r="M154">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="N154">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="O154">
         <v>1.33</v>
@@ -17731,13 +17731,13 @@
         <v>411</v>
       </c>
       <c r="F155">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="G155">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="H155">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="I155">
         <v>1.08</v>
@@ -17752,10 +17752,10 @@
         <v>3</v>
       </c>
       <c r="M155">
-        <v>2.33</v>
+        <v>2.15</v>
       </c>
       <c r="N155">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="O155">
         <v>1.5</v>
@@ -17856,10 +17856,10 @@
         <v>3.25</v>
       </c>
       <c r="M156">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="O156">
         <v>1.4</v>
@@ -17907,7 +17907,7 @@
         <v>1.95</v>
       </c>
       <c r="AD156">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE156">
         <v>1.32</v>
@@ -17939,13 +17939,13 @@
         <v>413</v>
       </c>
       <c r="F157">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G157">
-        <v>7</v>
+        <v>6.84</v>
       </c>
       <c r="H157">
-        <v>12.5</v>
+        <v>12.49</v>
       </c>
       <c r="I157">
         <v>1.01</v>
@@ -17960,10 +17960,10 @@
         <v>5.87</v>
       </c>
       <c r="M157">
-        <v>1.59</v>
+        <v>1.4</v>
       </c>
       <c r="N157">
-        <v>2.22</v>
+        <v>2.82</v>
       </c>
       <c r="O157">
         <v>1.23</v>
@@ -18043,13 +18043,13 @@
         <v>414</v>
       </c>
       <c r="F158">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="G158">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H158">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I158">
         <v>1.02</v>
@@ -18064,10 +18064,10 @@
         <v>4.5</v>
       </c>
       <c r="M158">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="N158">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="O158">
         <v>1.3</v>
@@ -18147,10 +18147,10 @@
         <v>415</v>
       </c>
       <c r="F159">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="G159">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H159">
         <v>7</v>
@@ -18168,10 +18168,10 @@
         <v>4</v>
       </c>
       <c r="M159">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="N159">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="O159">
         <v>1.29</v>
@@ -18210,13 +18210,13 @@
         <v>3.23</v>
       </c>
       <c r="AA159">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AB159">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AC159">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AD159">
         <v>0</v>
@@ -18225,13 +18225,13 @@
         <v>0</v>
       </c>
       <c r="AF159">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG159">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AH159">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="160" spans="1:34">
@@ -18251,13 +18251,13 @@
         <v>416</v>
       </c>
       <c r="F160">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="G160">
-        <v>3.45</v>
+        <v>3.59</v>
       </c>
       <c r="H160">
-        <v>2.63</v>
+        <v>2.78</v>
       </c>
       <c r="I160">
         <v>1.05</v>
@@ -18272,7 +18272,7 @@
         <v>3.4</v>
       </c>
       <c r="M160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="N160">
         <v>1.95</v>
@@ -18355,13 +18355,13 @@
         <v>417</v>
       </c>
       <c r="F161">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="G161">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="H161">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="I161">
         <v>1.03</v>
@@ -18376,10 +18376,10 @@
         <v>4</v>
       </c>
       <c r="M161">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="N161">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="O161">
         <v>1.3</v>
@@ -18459,13 +18459,13 @@
         <v>418</v>
       </c>
       <c r="F162">
-        <v>2.1</v>
+        <v>2.09</v>
       </c>
       <c r="G162">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="H162">
-        <v>3.35</v>
+        <v>3.46</v>
       </c>
       <c r="I162">
         <v>1.03</v>
@@ -18480,10 +18480,10 @@
         <v>4</v>
       </c>
       <c r="M162">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O162">
         <v>1.34</v>
@@ -18563,13 +18563,13 @@
         <v>419</v>
       </c>
       <c r="F163">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="G163">
-        <v>3.25</v>
+        <v>3.49</v>
       </c>
       <c r="H163">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="I163">
         <v>1.07</v>
@@ -18584,10 +18584,10 @@
         <v>3.1</v>
       </c>
       <c r="M163">
+        <v>1.96</v>
+      </c>
+      <c r="N163">
         <v>1.86</v>
-      </c>
-      <c r="N163">
-        <v>1.81</v>
       </c>
       <c r="O163">
         <v>1.44</v>
@@ -18667,13 +18667,13 @@
         <v>420</v>
       </c>
       <c r="F164">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="G164">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="H164">
-        <v>5.25</v>
+        <v>5.82</v>
       </c>
       <c r="I164">
         <v>1.02</v>
@@ -18688,10 +18688,10 @@
         <v>4</v>
       </c>
       <c r="M164">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="N164">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="O164">
         <v>1.32</v>
@@ -18771,13 +18771,13 @@
         <v>421</v>
       </c>
       <c r="F165">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="G165">
-        <v>5.5</v>
+        <v>5.69</v>
       </c>
       <c r="H165">
-        <v>8.75</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="I165">
         <v>1.02</v>
@@ -18792,10 +18792,10 @@
         <v>5</v>
       </c>
       <c r="M165">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="N165">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="O165">
         <v>1.25</v>
@@ -18875,13 +18875,13 @@
         <v>422</v>
       </c>
       <c r="F166">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="G166">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="H166">
-        <v>3.1</v>
+        <v>3.46</v>
       </c>
       <c r="I166">
         <v>1.14</v>
@@ -18890,16 +18890,16 @@
         <v>5</v>
       </c>
       <c r="K166">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="L166">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="M166">
-        <v>2.45</v>
+        <v>2.89</v>
       </c>
       <c r="N166">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="O166">
         <v>1.67</v>
@@ -18979,13 +18979,13 @@
         <v>423</v>
       </c>
       <c r="F167">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G167">
-        <v>3.65</v>
+        <v>3.59</v>
       </c>
       <c r="H167">
-        <v>5.25</v>
+        <v>5.44</v>
       </c>
       <c r="I167">
         <v>1.06</v>
@@ -19000,10 +19000,10 @@
         <v>2.95</v>
       </c>
       <c r="M167">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N167">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="O167">
         <v>1.44</v>
@@ -19291,13 +19291,13 @@
         <v>426</v>
       </c>
       <c r="F170">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="G170">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H170">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="I170">
         <v>1.06</v>
@@ -19395,10 +19395,10 @@
         <v>427</v>
       </c>
       <c r="F171">
-        <v>10</v>
+        <v>11.16</v>
       </c>
       <c r="G171">
-        <v>5.4</v>
+        <v>5.69</v>
       </c>
       <c r="H171">
         <v>1.28</v>
@@ -19416,10 +19416,10 @@
         <v>4</v>
       </c>
       <c r="M171">
-        <v>1.64</v>
+        <v>1.56</v>
       </c>
       <c r="N171">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="O171">
         <v>1.33</v>
@@ -19499,13 +19499,13 @@
         <v>428</v>
       </c>
       <c r="F172">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="G172">
-        <v>3.1</v>
+        <v>3.45</v>
       </c>
       <c r="H172">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -19603,13 +19603,13 @@
         <v>429</v>
       </c>
       <c r="F173">
-        <v>2.05</v>
+        <v>2.14</v>
       </c>
       <c r="G173">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="H173">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="I173">
         <v>1.06</v>
@@ -19624,10 +19624,10 @@
         <v>3.25</v>
       </c>
       <c r="M173">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="N173">
-        <v>1.89</v>
+        <v>1.85</v>
       </c>
       <c r="O173">
         <v>1.35</v>
@@ -19713,7 +19713,7 @@
         <v>4.2</v>
       </c>
       <c r="H174">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="I174">
         <v>1.03</v>
@@ -19728,10 +19728,10 @@
         <v>4.75</v>
       </c>
       <c r="M174">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="N174">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O174">
         <v>1.29</v>
@@ -19915,10 +19915,10 @@
         <v>431</v>
       </c>
       <c r="F176">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="G176">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H176">
         <v>2.6</v>
@@ -19936,7 +19936,7 @@
         <v>2.45</v>
       </c>
       <c r="M176">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N176">
         <v>1.53</v>
@@ -20955,13 +20955,13 @@
         <v>438</v>
       </c>
       <c r="F186">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="G186">
         <v>3.2</v>
       </c>
       <c r="H186">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="I186">
         <v>1.05</v>
@@ -20976,10 +20976,10 @@
         <v>3.6</v>
       </c>
       <c r="M186">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="N186">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="O186">
         <v>1.33</v>

--- a/Jogos_do_Dia/2023-03-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-03-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1867,10 +1867,10 @@
         <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="W2">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="X2">
         <v>1.59</v>
@@ -1923,13 +1923,13 @@
         <v>262</v>
       </c>
       <c r="F3">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H3">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1.05</v>
@@ -1944,10 +1944,10 @@
         <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="N3">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="O3">
         <v>1.4</v>
@@ -1971,10 +1971,10 @@
         <v>2.05</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X3">
         <v>1.61</v>
@@ -2027,13 +2027,13 @@
         <v>263</v>
       </c>
       <c r="F4">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="G4">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="H4">
-        <v>2.85</v>
+        <v>2.4</v>
       </c>
       <c r="I4">
         <v>1.03</v>
@@ -2048,10 +2048,10 @@
         <v>2.98</v>
       </c>
       <c r="M4">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N4">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="O4">
         <v>1.4</v>
@@ -2075,7 +2075,7 @@
         <v>1.5</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>1.57</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -2390,7 +2390,7 @@
         <v>0</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>1.55</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X8">
         <v>1.94</v>
@@ -2595,10 +2595,10 @@
         <v>1.5</v>
       </c>
       <c r="V9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="W9">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="X9">
         <v>2.22</v>
@@ -2699,7 +2699,7 @@
         <v>1.55</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2803,7 +2803,7 @@
         <v>1.28</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -2859,13 +2859,13 @@
         <v>271</v>
       </c>
       <c r="F12">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G12">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="I12">
         <v>1.05</v>
@@ -2880,10 +2880,10 @@
         <v>3.4</v>
       </c>
       <c r="M12">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N12">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O12">
         <v>1.4</v>
@@ -2963,13 +2963,13 @@
         <v>272</v>
       </c>
       <c r="F13">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="G13">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H13">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -2984,10 +2984,10 @@
         <v>3.6</v>
       </c>
       <c r="M13">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="O13">
         <v>1.36</v>
@@ -3011,7 +3011,7 @@
         <v>1.53</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -3067,13 +3067,13 @@
         <v>273</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="G14">
         <v>3.1</v>
       </c>
       <c r="H14">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="I14">
         <v>1.07</v>
@@ -3088,10 +3088,10 @@
         <v>3</v>
       </c>
       <c r="M14">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="N14">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="O14">
         <v>1.44</v>
@@ -3115,10 +3115,10 @@
         <v>1.35</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X14">
         <v>0.79</v>
@@ -3174,10 +3174,10 @@
         <v>2</v>
       </c>
       <c r="G15">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H15">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I15">
         <v>1.06</v>
@@ -3192,10 +3192,10 @@
         <v>3.25</v>
       </c>
       <c r="M15">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="N15">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="O15">
         <v>1.4</v>
@@ -3222,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X15">
         <v>1.22</v>
@@ -3323,10 +3323,10 @@
         <v>1.73</v>
       </c>
       <c r="V16">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="W16">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="X16">
         <v>1.69</v>
@@ -3427,10 +3427,10 @@
         <v>1.55</v>
       </c>
       <c r="V17">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="X17">
         <v>1.54</v>
@@ -3483,13 +3483,13 @@
         <v>277</v>
       </c>
       <c r="F18">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="G18">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H18">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1.06</v>
@@ -3504,10 +3504,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="N18">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="O18">
         <v>1.44</v>
@@ -3531,7 +3531,7 @@
         <v>1.66</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -3691,10 +3691,10 @@
         <v>279</v>
       </c>
       <c r="F20">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H20">
         <v>2.2</v>
@@ -3712,10 +3712,10 @@
         <v>2.62</v>
       </c>
       <c r="M20">
-        <v>2.1</v>
+        <v>2.24</v>
       </c>
       <c r="N20">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="O20">
         <v>1.5</v>
@@ -3739,10 +3739,10 @@
         <v>1.34</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X20">
         <v>1.2</v>
@@ -3795,13 +3795,13 @@
         <v>280</v>
       </c>
       <c r="F21">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="G21">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="I21">
         <v>1.03</v>
@@ -3843,7 +3843,7 @@
         <v>1.81</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -3947,10 +3947,10 @@
         <v>1.3</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22">
         <v>0</v>
@@ -4051,10 +4051,10 @@
         <v>1.73</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="W23">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="X23">
         <v>1.89</v>
@@ -4107,13 +4107,13 @@
         <v>283</v>
       </c>
       <c r="F24">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="G24">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="H24">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="I24">
         <v>1.02</v>
@@ -4131,7 +4131,7 @@
         <v>2.15</v>
       </c>
       <c r="N24">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="O24">
         <v>1.44</v>
@@ -4211,13 +4211,13 @@
         <v>284</v>
       </c>
       <c r="F25">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="G25">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H25">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>1.05</v>
@@ -4232,10 +4232,10 @@
         <v>3.82</v>
       </c>
       <c r="M25">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="N25">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="O25">
         <v>1.33</v>
@@ -4315,13 +4315,13 @@
         <v>285</v>
       </c>
       <c r="F26">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="G26">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="H26">
-        <v>5.21</v>
+        <v>4.75</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -4336,10 +4336,10 @@
         <v>4.4</v>
       </c>
       <c r="M26">
-        <v>1.59</v>
+        <v>1.75</v>
       </c>
       <c r="N26">
-        <v>2.21</v>
+        <v>1.92</v>
       </c>
       <c r="O26">
         <v>1.29</v>
@@ -4419,10 +4419,10 @@
         <v>286</v>
       </c>
       <c r="F27">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="G27">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H27">
         <v>2.2</v>
@@ -4440,10 +4440,10 @@
         <v>3.5</v>
       </c>
       <c r="M27">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="N27">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O27">
         <v>1.36</v>
@@ -4482,28 +4482,28 @@
         <v>3.18</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="28" spans="1:34">
@@ -4523,13 +4523,13 @@
         <v>287</v>
       </c>
       <c r="F28">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="G28">
-        <v>3.39</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>3.93</v>
+        <v>3.6</v>
       </c>
       <c r="I28">
         <v>1.07</v>
@@ -4547,7 +4547,7 @@
         <v>2.15</v>
       </c>
       <c r="N28">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O28">
         <v>1.44</v>
@@ -4586,28 +4586,28 @@
         <v>3.08</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AD28">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AG28">
         <v>1.9</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="29" spans="1:34">
@@ -4627,13 +4627,13 @@
         <v>288</v>
       </c>
       <c r="F29">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="G29">
-        <v>4.22</v>
+        <v>3.9</v>
       </c>
       <c r="H29">
-        <v>5.81</v>
+        <v>4.3</v>
       </c>
       <c r="I29">
         <v>1.04</v>
@@ -4731,13 +4731,13 @@
         <v>289</v>
       </c>
       <c r="F30">
-        <v>2.97</v>
+        <v>2.9</v>
       </c>
       <c r="G30">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="H30">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="I30">
         <v>1.03</v>
@@ -4752,10 +4752,10 @@
         <v>3.8</v>
       </c>
       <c r="M30">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="N30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="O30">
         <v>1.32</v>
@@ -4835,13 +4835,13 @@
         <v>290</v>
       </c>
       <c r="F31">
-        <v>3.53</v>
+        <v>3.3</v>
       </c>
       <c r="G31">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="H31">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1.05</v>
@@ -4856,10 +4856,10 @@
         <v>3.5</v>
       </c>
       <c r="M31">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="N31">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O31">
         <v>1.37</v>
@@ -4939,13 +4939,13 @@
         <v>291</v>
       </c>
       <c r="F32">
-        <v>4.38</v>
+        <v>4.5</v>
       </c>
       <c r="G32">
-        <v>3.56</v>
+        <v>3.5</v>
       </c>
       <c r="H32">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="I32">
         <v>1.04</v>
@@ -4960,7 +4960,7 @@
         <v>3.5</v>
       </c>
       <c r="M32">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="N32">
         <v>1.89</v>
@@ -5043,13 +5043,13 @@
         <v>292</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>3.35</v>
       </c>
       <c r="G33">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="H33">
-        <v>1.94</v>
+        <v>2.05</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -5064,10 +5064,10 @@
         <v>3.3</v>
       </c>
       <c r="M33">
-        <v>1.97</v>
+        <v>1.9</v>
       </c>
       <c r="N33">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="O33">
         <v>1.4</v>
@@ -5147,13 +5147,13 @@
         <v>293</v>
       </c>
       <c r="F34">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G34">
-        <v>3.39</v>
+        <v>3.25</v>
       </c>
       <c r="H34">
-        <v>3.23</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>1.04</v>
@@ -5168,10 +5168,10 @@
         <v>3</v>
       </c>
       <c r="M34">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N34">
-        <v>1.81</v>
+        <v>1.61</v>
       </c>
       <c r="O34">
         <v>1.42</v>
@@ -5251,13 +5251,13 @@
         <v>294</v>
       </c>
       <c r="F35">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="G35">
-        <v>5.09</v>
+        <v>4.8</v>
       </c>
       <c r="H35">
-        <v>7.7</v>
+        <v>6.75</v>
       </c>
       <c r="I35">
         <v>1.01</v>
@@ -5272,10 +5272,10 @@
         <v>4.7</v>
       </c>
       <c r="M35">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="N35">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="O35">
         <v>1.3</v>
@@ -5376,10 +5376,10 @@
         <v>3.7</v>
       </c>
       <c r="M36">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="N36">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="O36">
         <v>1.35</v>
@@ -5459,13 +5459,13 @@
         <v>296</v>
       </c>
       <c r="F37">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="G37">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="I37">
         <v>1.08</v>
@@ -5480,10 +5480,10 @@
         <v>3.1</v>
       </c>
       <c r="M37">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="N37">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="O37">
         <v>1.46</v>
@@ -5563,13 +5563,13 @@
         <v>297</v>
       </c>
       <c r="F38">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="G38">
-        <v>7.64</v>
+        <v>8</v>
       </c>
       <c r="H38">
-        <v>16.48</v>
+        <v>16</v>
       </c>
       <c r="I38">
         <v>1.02</v>
@@ -5584,10 +5584,10 @@
         <v>6</v>
       </c>
       <c r="M38">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="N38">
-        <v>2.99</v>
+        <v>2.45</v>
       </c>
       <c r="O38">
         <v>1.22</v>
@@ -5629,10 +5629,10 @@
         <v>1.04</v>
       </c>
       <c r="AB38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -5641,7 +5641,7 @@
         <v>1.28</v>
       </c>
       <c r="AF38">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AG38">
         <v>1.93</v>
@@ -5667,13 +5667,13 @@
         <v>298</v>
       </c>
       <c r="F39">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G39">
-        <v>3.83</v>
+        <v>3.55</v>
       </c>
       <c r="H39">
-        <v>3.81</v>
+        <v>3.7</v>
       </c>
       <c r="I39">
         <v>1.05</v>
@@ -5688,10 +5688,10 @@
         <v>3.75</v>
       </c>
       <c r="M39">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="N39">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="O39">
         <v>1.34</v>
@@ -5771,13 +5771,13 @@
         <v>299</v>
       </c>
       <c r="F40">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G40">
-        <v>3.87</v>
+        <v>3.5</v>
       </c>
       <c r="H40">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="I40">
         <v>1.05</v>
@@ -5792,10 +5792,10 @@
         <v>3.6</v>
       </c>
       <c r="M40">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="N40">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="O40">
         <v>1.36</v>
@@ -5875,13 +5875,13 @@
         <v>300</v>
       </c>
       <c r="F41">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="G41">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H41">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I41">
         <v>1.04</v>
@@ -5899,7 +5899,7 @@
         <v>1.75</v>
       </c>
       <c r="N41">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O41">
         <v>1.32</v>
@@ -5979,13 +5979,13 @@
         <v>301</v>
       </c>
       <c r="F42">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="G42">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H42">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="I42">
         <v>1.01</v>
@@ -6000,10 +6000,10 @@
         <v>3.4</v>
       </c>
       <c r="M42">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="N42">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="O42">
         <v>1.37</v>
@@ -6083,13 +6083,13 @@
         <v>302</v>
       </c>
       <c r="F43">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="G43">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H43">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="I43">
         <v>1.05</v>
@@ -6104,10 +6104,10 @@
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="N43">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="O43">
         <v>1.36</v>
@@ -6190,10 +6190,10 @@
         <v>2.3</v>
       </c>
       <c r="G44">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H44">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="I44">
         <v>1.04</v>
@@ -6208,10 +6208,10 @@
         <v>4</v>
       </c>
       <c r="M44">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>2.11</v>
       </c>
       <c r="O44">
         <v>1.33</v>
@@ -6291,13 +6291,13 @@
         <v>304</v>
       </c>
       <c r="F45">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="G45">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>2.91</v>
+        <v>2.8</v>
       </c>
       <c r="I45">
         <v>1.1</v>
@@ -6306,16 +6306,16 @@
         <v>6.3</v>
       </c>
       <c r="K45">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="L45">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="M45">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="N45">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="O45">
         <v>1.57</v>
@@ -6395,13 +6395,13 @@
         <v>305</v>
       </c>
       <c r="F46">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G46">
         <v>3.5</v>
       </c>
       <c r="H46">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I46">
         <v>1.05</v>
@@ -6416,10 +6416,10 @@
         <v>3</v>
       </c>
       <c r="M46">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N46">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="O46">
         <v>1.42</v>
@@ -6499,13 +6499,13 @@
         <v>259</v>
       </c>
       <c r="F47">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="G47">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="I47">
         <v>1.04</v>
@@ -6520,10 +6520,10 @@
         <v>4.5</v>
       </c>
       <c r="M47">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="N47">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O47">
         <v>1.33</v>
@@ -6603,13 +6603,13 @@
         <v>306</v>
       </c>
       <c r="F48">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="G48">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="H48">
-        <v>4.23</v>
+        <v>3.65</v>
       </c>
       <c r="I48">
         <v>1.08</v>
@@ -6624,10 +6624,10 @@
         <v>2.8</v>
       </c>
       <c r="M48">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="N48">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="O48">
         <v>1.49</v>
@@ -6710,16 +6710,16 @@
         <v>1.15</v>
       </c>
       <c r="G49">
-        <v>7.2</v>
+        <v>5.85</v>
       </c>
       <c r="H49">
-        <v>11.55</v>
+        <v>11.24</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K49">
         <v>1.11</v>
@@ -6811,13 +6811,13 @@
         <v>308</v>
       </c>
       <c r="F50">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="G50">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="H50">
-        <v>3.11</v>
+        <v>3.09</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -6832,10 +6832,10 @@
         <v>3.94</v>
       </c>
       <c r="M50">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="N50">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="O50">
         <v>1.33</v>
@@ -6915,13 +6915,13 @@
         <v>309</v>
       </c>
       <c r="F51">
-        <v>2.76</v>
+        <v>2.6</v>
       </c>
       <c r="G51">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H51">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="I51">
         <v>1.03</v>
@@ -6936,10 +6936,10 @@
         <v>4.75</v>
       </c>
       <c r="M51">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="N51">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="O51">
         <v>1.27</v>
@@ -6981,10 +6981,10 @@
         <v>2.25</v>
       </c>
       <c r="AB51">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AC51">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AD51">
         <v>1.22</v>
@@ -6993,7 +6993,7 @@
         <v>1.49</v>
       </c>
       <c r="AF51">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AG51">
         <v>2.24</v>
@@ -7022,7 +7022,7 @@
         <v>2.1</v>
       </c>
       <c r="G52">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>3.4</v>
@@ -7040,10 +7040,10 @@
         <v>2.75</v>
       </c>
       <c r="M52">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N52">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O52">
         <v>1.44</v>
@@ -7123,13 +7123,13 @@
         <v>311</v>
       </c>
       <c r="F53">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="G53">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H53">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I53">
         <v>1.05</v>
@@ -7144,10 +7144,10 @@
         <v>3.75</v>
       </c>
       <c r="M53">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="N53">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="O53">
         <v>1.36</v>
@@ -7195,7 +7195,7 @@
         <v>6</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE53">
         <v>1.36</v>
@@ -7299,7 +7299,7 @@
         <v>2.91</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE54">
         <v>1.3</v>
@@ -7331,10 +7331,10 @@
         <v>313</v>
       </c>
       <c r="F55">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="G55">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H55">
         <v>2.35</v>
@@ -7352,10 +7352,10 @@
         <v>3.5</v>
       </c>
       <c r="M55">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="N55">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="O55">
         <v>1.38</v>
@@ -7403,7 +7403,7 @@
         <v>1.91</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE55">
         <v>1.29</v>
@@ -7435,13 +7435,13 @@
         <v>314</v>
       </c>
       <c r="F56">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="G56">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H56">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="I56">
         <v>1.06</v>
@@ -7456,10 +7456,10 @@
         <v>3.3</v>
       </c>
       <c r="M56">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="N56">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="O56">
         <v>1.41</v>
@@ -7539,13 +7539,13 @@
         <v>315</v>
       </c>
       <c r="F57">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="G57">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H57">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I57">
         <v>1.01</v>
@@ -7560,10 +7560,10 @@
         <v>3.55</v>
       </c>
       <c r="M57">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="N57">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="O57">
         <v>1.35</v>
@@ -7643,13 +7643,13 @@
         <v>316</v>
       </c>
       <c r="F58">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="G58">
-        <v>3.03</v>
+        <v>3.3</v>
       </c>
       <c r="H58">
-        <v>4.86</v>
+        <v>3.65</v>
       </c>
       <c r="I58">
         <v>1.05</v>
@@ -7664,10 +7664,10 @@
         <v>3.5</v>
       </c>
       <c r="M58">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="N58">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="O58">
         <v>1.4</v>
@@ -7747,13 +7747,13 @@
         <v>317</v>
       </c>
       <c r="F59">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="G59">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="H59">
-        <v>7</v>
+        <v>7.25</v>
       </c>
       <c r="I59">
         <v>1.01</v>
@@ -7768,10 +7768,10 @@
         <v>3.54</v>
       </c>
       <c r="M59">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="N59">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="O59">
         <v>1.36</v>
@@ -7810,28 +7810,28 @@
         <v>2.74</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="60" spans="1:34">
@@ -7851,10 +7851,10 @@
         <v>318</v>
       </c>
       <c r="F60">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G60">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="H60">
         <v>3.25</v>
@@ -7872,10 +7872,10 @@
         <v>3.1</v>
       </c>
       <c r="M60">
-        <v>1.91</v>
+        <v>1.99</v>
       </c>
       <c r="N60">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O60">
         <v>1.42</v>
@@ -7955,13 +7955,13 @@
         <v>319</v>
       </c>
       <c r="F61">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="G61">
-        <v>3.54</v>
+        <v>3.4</v>
       </c>
       <c r="H61">
-        <v>4.59</v>
+        <v>4.1</v>
       </c>
       <c r="I61">
         <v>1.06</v>
@@ -7976,7 +7976,7 @@
         <v>2.95</v>
       </c>
       <c r="M61">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="N61">
         <v>1.65</v>
@@ -8059,13 +8059,13 @@
         <v>320</v>
       </c>
       <c r="F62">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="G62">
-        <v>3.84</v>
+        <v>3.75</v>
       </c>
       <c r="H62">
-        <v>3.37</v>
+        <v>3.8</v>
       </c>
       <c r="I62">
         <v>1.02</v>
@@ -8080,10 +8080,10 @@
         <v>4.3</v>
       </c>
       <c r="M62">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="O62">
         <v>1.33</v>
@@ -8163,13 +8163,13 @@
         <v>321</v>
       </c>
       <c r="F63">
-        <v>2.41</v>
+        <v>2.45</v>
       </c>
       <c r="G63">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="H63">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="I63">
         <v>1.04</v>
@@ -8184,10 +8184,10 @@
         <v>3.75</v>
       </c>
       <c r="M63">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="O63">
         <v>1.33</v>
@@ -8267,13 +8267,13 @@
         <v>322</v>
       </c>
       <c r="F64">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="G64">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I64">
         <v>1.06</v>
@@ -8288,10 +8288,10 @@
         <v>3.58</v>
       </c>
       <c r="M64">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="N64">
-        <v>1.99</v>
+        <v>1.91</v>
       </c>
       <c r="O64">
         <v>1.4</v>
@@ -8371,13 +8371,13 @@
         <v>323</v>
       </c>
       <c r="F65">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="G65">
-        <v>3.87</v>
+        <v>3.55</v>
       </c>
       <c r="H65">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="I65">
         <v>1.03</v>
@@ -8392,10 +8392,10 @@
         <v>4</v>
       </c>
       <c r="M65">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="N65">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="O65">
         <v>1.33</v>
@@ -8475,52 +8475,52 @@
         <v>324</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="Q66">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V66">
         <v>1.08</v>
@@ -8538,25 +8538,25 @@
         <v>2.9</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AH66">
         <v>0</v>
@@ -8579,13 +8579,13 @@
         <v>325</v>
       </c>
       <c r="F67">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="G67">
-        <v>3.99</v>
+        <v>3.6</v>
       </c>
       <c r="H67">
-        <v>5.29</v>
+        <v>4.55</v>
       </c>
       <c r="I67">
         <v>1.03</v>
@@ -8600,10 +8600,10 @@
         <v>3.75</v>
       </c>
       <c r="M67">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="N67">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="O67">
         <v>1.34</v>
@@ -8683,13 +8683,13 @@
         <v>326</v>
       </c>
       <c r="F68">
-        <v>3.08</v>
+        <v>2.87</v>
       </c>
       <c r="G68">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="H68">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="I68">
         <v>1.06</v>
@@ -8704,10 +8704,10 @@
         <v>3.2</v>
       </c>
       <c r="M68">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O68">
         <v>1.41</v>
@@ -8790,10 +8790,10 @@
         <v>1.14</v>
       </c>
       <c r="G69">
-        <v>8.33</v>
+        <v>7</v>
       </c>
       <c r="H69">
-        <v>19.25</v>
+        <v>14</v>
       </c>
       <c r="I69">
         <v>1.02</v>
@@ -8808,10 +8808,10 @@
         <v>5.5</v>
       </c>
       <c r="M69">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="N69">
-        <v>2.54</v>
+        <v>2.44</v>
       </c>
       <c r="O69">
         <v>1.29</v>
@@ -8891,13 +8891,13 @@
         <v>328</v>
       </c>
       <c r="F70">
-        <v>2.92</v>
+        <v>2.65</v>
       </c>
       <c r="G70">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="H70">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="I70">
         <v>1.07</v>
@@ -8915,7 +8915,7 @@
         <v>2.2</v>
       </c>
       <c r="N70">
-        <v>1.66</v>
+        <v>1.61</v>
       </c>
       <c r="O70">
         <v>1.45</v>
@@ -8995,13 +8995,13 @@
         <v>329</v>
       </c>
       <c r="F71">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="G71">
-        <v>3.57</v>
+        <v>3.45</v>
       </c>
       <c r="H71">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="I71">
         <v>1.03</v>
@@ -9016,10 +9016,10 @@
         <v>4</v>
       </c>
       <c r="M71">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="N71">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O71">
         <v>1.33</v>
@@ -9099,13 +9099,13 @@
         <v>330</v>
       </c>
       <c r="F72">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="G72">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="H72">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="I72">
         <v>1.06</v>
@@ -9120,10 +9120,10 @@
         <v>3.1</v>
       </c>
       <c r="M72">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="N72">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="O72">
         <v>1.42</v>
@@ -9203,13 +9203,13 @@
         <v>331</v>
       </c>
       <c r="F73">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="G73">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="H73">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I73">
         <v>1.05</v>
@@ -9224,10 +9224,10 @@
         <v>3.25</v>
       </c>
       <c r="M73">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="N73">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="O73">
         <v>1.39</v>
@@ -9307,13 +9307,13 @@
         <v>332</v>
       </c>
       <c r="F74">
-        <v>3.27</v>
+        <v>3.4</v>
       </c>
       <c r="G74">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="H74">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="I74">
         <v>1.05</v>
@@ -9328,10 +9328,10 @@
         <v>3.6</v>
       </c>
       <c r="M74">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="N74">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="O74">
         <v>1.36</v>
@@ -9411,10 +9411,10 @@
         <v>333</v>
       </c>
       <c r="F75">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="G75">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="H75">
         <v>2.8</v>
@@ -9432,10 +9432,10 @@
         <v>3.5</v>
       </c>
       <c r="M75">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="N75">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="O75">
         <v>1.38</v>
@@ -9518,10 +9518,10 @@
         <v>1.7</v>
       </c>
       <c r="G76">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="H76">
-        <v>5.25</v>
+        <v>4.7</v>
       </c>
       <c r="I76">
         <v>1.05</v>
@@ -9536,10 +9536,10 @@
         <v>3.3</v>
       </c>
       <c r="M76">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="N76">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O76">
         <v>1.39</v>
@@ -9619,13 +9619,13 @@
         <v>335</v>
       </c>
       <c r="F77">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="G77">
-        <v>5.64</v>
+        <v>4.8</v>
       </c>
       <c r="H77">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I77">
         <v>1.02</v>
@@ -9640,10 +9640,10 @@
         <v>4.5</v>
       </c>
       <c r="M77">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="N77">
-        <v>2.25</v>
+        <v>2.19</v>
       </c>
       <c r="O77">
         <v>1.28</v>
@@ -9723,13 +9723,13 @@
         <v>336</v>
       </c>
       <c r="F78">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="G78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H78">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="I78">
         <v>1.05</v>
@@ -9744,10 +9744,10 @@
         <v>3.4</v>
       </c>
       <c r="M78">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="N78">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="O78">
         <v>1.39</v>
@@ -9827,13 +9827,13 @@
         <v>337</v>
       </c>
       <c r="F79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G79">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H79">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I79">
         <v>1.04</v>
@@ -9848,10 +9848,10 @@
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="N79">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O79">
         <v>1.34</v>
@@ -9934,10 +9934,10 @@
         <v>1.9</v>
       </c>
       <c r="G80">
-        <v>3.41</v>
+        <v>3.25</v>
       </c>
       <c r="H80">
-        <v>4.12</v>
+        <v>3.9</v>
       </c>
       <c r="I80">
         <v>1.06</v>
@@ -9952,10 +9952,10 @@
         <v>3</v>
       </c>
       <c r="M80">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="N80">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="O80">
         <v>1.42</v>
@@ -10035,13 +10035,13 @@
         <v>339</v>
       </c>
       <c r="F81">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="G81">
-        <v>3.76</v>
+        <v>3.55</v>
       </c>
       <c r="H81">
-        <v>4.43</v>
+        <v>4.4</v>
       </c>
       <c r="I81">
         <v>1.03</v>
@@ -10056,10 +10056,10 @@
         <v>3.75</v>
       </c>
       <c r="M81">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="N81">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="O81">
         <v>1.34</v>
@@ -10142,10 +10142,10 @@
         <v>2.05</v>
       </c>
       <c r="G82">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H82">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="I82">
         <v>1.05</v>
@@ -10160,10 +10160,10 @@
         <v>3.25</v>
       </c>
       <c r="M82">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="N82">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O82">
         <v>1.39</v>
@@ -10243,13 +10243,13 @@
         <v>341</v>
       </c>
       <c r="F83">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G83">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H83">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="I83">
         <v>1.07</v>
@@ -10264,10 +10264,10 @@
         <v>3</v>
       </c>
       <c r="M83">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="N83">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="O83">
         <v>1.5</v>
@@ -10347,13 +10347,13 @@
         <v>342</v>
       </c>
       <c r="F84">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="G84">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="H84">
-        <v>4.47</v>
+        <v>4.3</v>
       </c>
       <c r="I84">
         <v>1.08</v>
@@ -10368,10 +10368,10 @@
         <v>2.8</v>
       </c>
       <c r="M84">
-        <v>2.19</v>
+        <v>2.09</v>
       </c>
       <c r="N84">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="O84">
         <v>1.5</v>
@@ -10451,13 +10451,13 @@
         <v>343</v>
       </c>
       <c r="F85">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="G85">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H85">
-        <v>3.98</v>
+        <v>3.8</v>
       </c>
       <c r="I85">
         <v>1.05</v>
@@ -10472,10 +10472,10 @@
         <v>3</v>
       </c>
       <c r="M85">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="N85">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O85">
         <v>1.42</v>
@@ -10555,13 +10555,13 @@
         <v>344</v>
       </c>
       <c r="F86">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="G86">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="I86">
         <v>1.08</v>
@@ -10576,10 +10576,10 @@
         <v>2.9</v>
       </c>
       <c r="M86">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N86">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="O86">
         <v>1.5</v>
@@ -10659,10 +10659,10 @@
         <v>345</v>
       </c>
       <c r="F87">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="G87">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H87">
         <v>4.2</v>
@@ -10680,7 +10680,7 @@
         <v>2.88</v>
       </c>
       <c r="M87">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N87">
         <v>1.6</v>
@@ -10763,13 +10763,13 @@
         <v>346</v>
       </c>
       <c r="F88">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H88">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I88">
         <v>1.04</v>
@@ -10784,10 +10784,10 @@
         <v>3.3</v>
       </c>
       <c r="M88">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="N88">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O88">
         <v>1.4</v>
@@ -10867,13 +10867,13 @@
         <v>347</v>
       </c>
       <c r="F89">
-        <v>4.25</v>
+        <v>4.4</v>
       </c>
       <c r="G89">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H89">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="I89">
         <v>1.07</v>
@@ -10888,10 +10888,10 @@
         <v>3</v>
       </c>
       <c r="M89">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N89">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="O89">
         <v>1.44</v>
@@ -10971,13 +10971,13 @@
         <v>348</v>
       </c>
       <c r="F90">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G90">
         <v>3.1</v>
       </c>
       <c r="H90">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I90">
         <v>1.07</v>
@@ -10992,10 +10992,10 @@
         <v>2.85</v>
       </c>
       <c r="M90">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="N90">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="O90">
         <v>1.5</v>
@@ -11075,13 +11075,13 @@
         <v>349</v>
       </c>
       <c r="F91">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="G91">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="H91">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="I91">
         <v>1.05</v>
@@ -11099,7 +11099,7 @@
         <v>2</v>
       </c>
       <c r="N91">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="O91">
         <v>1.43</v>
@@ -11182,10 +11182,10 @@
         <v>1.67</v>
       </c>
       <c r="G92">
-        <v>3.93</v>
+        <v>3.4</v>
       </c>
       <c r="H92">
-        <v>5.46</v>
+        <v>5.25</v>
       </c>
       <c r="I92">
         <v>1.05</v>
@@ -11200,10 +11200,10 @@
         <v>2.9</v>
       </c>
       <c r="M92">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="N92">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="O92">
         <v>1.44</v>
@@ -11283,13 +11283,13 @@
         <v>351</v>
       </c>
       <c r="F93">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="G93">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H93">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I93">
         <v>1.05</v>
@@ -11304,10 +11304,10 @@
         <v>3.4</v>
       </c>
       <c r="M93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O93">
         <v>1.4</v>
@@ -11387,13 +11387,13 @@
         <v>352</v>
       </c>
       <c r="F94">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G94">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="H94">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I94">
         <v>1.09</v>
@@ -11408,10 +11408,10 @@
         <v>2.5</v>
       </c>
       <c r="M94">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="N94">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="O94">
         <v>1.53</v>
@@ -11491,13 +11491,13 @@
         <v>353</v>
       </c>
       <c r="F95">
-        <v>5.66</v>
+        <v>5.75</v>
       </c>
       <c r="G95">
-        <v>3.88</v>
+        <v>3.85</v>
       </c>
       <c r="H95">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="I95">
         <v>1.06</v>
@@ -11512,10 +11512,10 @@
         <v>3.4</v>
       </c>
       <c r="M95">
-        <v>1.85</v>
+        <v>1.97</v>
       </c>
       <c r="N95">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="O95">
         <v>1.42</v>
@@ -11595,13 +11595,13 @@
         <v>354</v>
       </c>
       <c r="F96">
-        <v>3.42</v>
+        <v>3</v>
       </c>
       <c r="G96">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="H96">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="I96">
         <v>1.05</v>
@@ -11616,10 +11616,10 @@
         <v>2.9</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="N96">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="O96">
         <v>1.5</v>
@@ -11699,13 +11699,13 @@
         <v>355</v>
       </c>
       <c r="F97">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="G97">
-        <v>3.41</v>
+        <v>3.3</v>
       </c>
       <c r="H97">
-        <v>3.79</v>
+        <v>3.45</v>
       </c>
       <c r="I97">
         <v>1.04</v>
@@ -11720,10 +11720,10 @@
         <v>3.1</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N97">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="O97">
         <v>1.47</v>
@@ -11803,13 +11803,13 @@
         <v>356</v>
       </c>
       <c r="F98">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G98">
-        <v>4.41</v>
+        <v>4.2</v>
       </c>
       <c r="H98">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I98">
         <v>1.01</v>
@@ -11824,10 +11824,10 @@
         <v>3.9</v>
       </c>
       <c r="M98">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="N98">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="O98">
         <v>1.33</v>
@@ -11907,13 +11907,13 @@
         <v>357</v>
       </c>
       <c r="F99">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="G99">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="H99">
-        <v>3.09</v>
+        <v>2.75</v>
       </c>
       <c r="I99">
         <v>1.03</v>
@@ -11928,10 +11928,10 @@
         <v>2.88</v>
       </c>
       <c r="M99">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="N99">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="O99">
         <v>1.45</v>
@@ -12011,13 +12011,13 @@
         <v>358</v>
       </c>
       <c r="F100">
-        <v>3.04</v>
+        <v>2.75</v>
       </c>
       <c r="G100">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="H100">
-        <v>2.41</v>
+        <v>2.5</v>
       </c>
       <c r="I100">
         <v>1.04</v>
@@ -12035,7 +12035,7 @@
         <v>2.04</v>
       </c>
       <c r="N100">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O100">
         <v>1.42</v>
@@ -12118,10 +12118,10 @@
         <v>2.3</v>
       </c>
       <c r="G101">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="H101">
-        <v>3.46</v>
+        <v>3.05</v>
       </c>
       <c r="I101">
         <v>1.03</v>
@@ -12136,10 +12136,10 @@
         <v>3.1</v>
       </c>
       <c r="M101">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N101">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="O101">
         <v>1.4</v>
@@ -12219,13 +12219,13 @@
         <v>360</v>
       </c>
       <c r="F102">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G102">
-        <v>3.39</v>
+        <v>3.45</v>
       </c>
       <c r="H102">
-        <v>5.06</v>
+        <v>4.1</v>
       </c>
       <c r="I102">
         <v>1.05</v>
@@ -12240,10 +12240,10 @@
         <v>2.8</v>
       </c>
       <c r="M102">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N102">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="O102">
         <v>1.5</v>
@@ -12323,13 +12323,13 @@
         <v>361</v>
       </c>
       <c r="F103">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G103">
-        <v>3.17</v>
+        <v>3.1</v>
       </c>
       <c r="H103">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="I103">
         <v>1.06</v>
@@ -12344,10 +12344,10 @@
         <v>2.8</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="N103">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="O103">
         <v>1.47</v>
@@ -12427,13 +12427,13 @@
         <v>362</v>
       </c>
       <c r="F104">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="G104">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="H104">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I104">
         <v>1.1</v>
@@ -12448,10 +12448,10 @@
         <v>2.58</v>
       </c>
       <c r="M104">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N104">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O104">
         <v>1.55</v>
@@ -12531,13 +12531,13 @@
         <v>363</v>
       </c>
       <c r="F105">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G105">
-        <v>6.16</v>
+        <v>6.5</v>
       </c>
       <c r="H105">
-        <v>11.19</v>
+        <v>12</v>
       </c>
       <c r="I105">
         <v>1.02</v>
@@ -12552,10 +12552,10 @@
         <v>5</v>
       </c>
       <c r="M105">
-        <v>1.58</v>
+        <v>1.42</v>
       </c>
       <c r="N105">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="O105">
         <v>1.29</v>
@@ -12635,13 +12635,13 @@
         <v>364</v>
       </c>
       <c r="F106">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="G106">
-        <v>3.38</v>
+        <v>3.05</v>
       </c>
       <c r="H106">
-        <v>3.82</v>
+        <v>3.65</v>
       </c>
       <c r="I106">
         <v>1.06</v>
@@ -12656,10 +12656,10 @@
         <v>2.95</v>
       </c>
       <c r="M106">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="N106">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="O106">
         <v>1.5</v>
@@ -12739,13 +12739,13 @@
         <v>365</v>
       </c>
       <c r="F107">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="G107">
-        <v>3.82</v>
+        <v>3.7</v>
       </c>
       <c r="H107">
-        <v>4.14</v>
+        <v>4.4</v>
       </c>
       <c r="I107">
         <v>1.04</v>
@@ -12760,10 +12760,10 @@
         <v>3.6</v>
       </c>
       <c r="M107">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="N107">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O107">
         <v>1.4</v>
@@ -12843,13 +12843,13 @@
         <v>366</v>
       </c>
       <c r="F108">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="G108">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H108">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="I108">
         <v>1.03</v>
@@ -12864,10 +12864,10 @@
         <v>3.38</v>
       </c>
       <c r="M108">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="N108">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="O108">
         <v>1.44</v>
@@ -12947,13 +12947,13 @@
         <v>367</v>
       </c>
       <c r="F109">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="G109">
-        <v>4.35</v>
+        <v>4</v>
       </c>
       <c r="H109">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I109">
         <v>1.05</v>
@@ -12968,10 +12968,10 @@
         <v>3.8</v>
       </c>
       <c r="M109">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="N109">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O109">
         <v>1.36</v>
@@ -13051,13 +13051,13 @@
         <v>368</v>
       </c>
       <c r="F110">
-        <v>10</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G110">
-        <v>5</v>
+        <v>5.45</v>
       </c>
       <c r="H110">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="I110">
         <v>1.01</v>
@@ -13072,10 +13072,10 @@
         <v>5.8</v>
       </c>
       <c r="M110">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="N110">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O110">
         <v>1.2</v>
@@ -13155,13 +13155,13 @@
         <v>369</v>
       </c>
       <c r="F111">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="G111">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H111">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="I111">
         <v>1.04</v>
@@ -13176,10 +13176,10 @@
         <v>3.5</v>
       </c>
       <c r="M111">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="N111">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="O111">
         <v>1.37</v>
@@ -13259,13 +13259,13 @@
         <v>370</v>
       </c>
       <c r="F112">
-        <v>2.55</v>
+        <v>3.2</v>
       </c>
       <c r="G112">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="H112">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="I112">
         <v>1.12</v>
@@ -13274,16 +13274,16 @@
         <v>6</v>
       </c>
       <c r="K112">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="L112">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M112">
         <v>2.9</v>
       </c>
       <c r="N112">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="O112">
         <v>1.67</v>
@@ -13363,13 +13363,13 @@
         <v>371</v>
       </c>
       <c r="F113">
-        <v>3.44</v>
+        <v>3.35</v>
       </c>
       <c r="G113">
-        <v>3.71</v>
+        <v>3.6</v>
       </c>
       <c r="H113">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="I113">
         <v>1.03</v>
@@ -13384,10 +13384,10 @@
         <v>4</v>
       </c>
       <c r="M113">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="N113">
-        <v>2.1</v>
+        <v>1.99</v>
       </c>
       <c r="O113">
         <v>1.33</v>
@@ -13467,13 +13467,13 @@
         <v>372</v>
       </c>
       <c r="F114">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G114">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H114">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="I114">
         <v>1.11</v>
@@ -13488,10 +13488,10 @@
         <v>2.55</v>
       </c>
       <c r="M114">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="N114">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="O114">
         <v>1.54</v>
@@ -13571,13 +13571,13 @@
         <v>373</v>
       </c>
       <c r="F115">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="G115">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H115">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="I115">
         <v>1.07</v>
@@ -13592,10 +13592,10 @@
         <v>3</v>
       </c>
       <c r="M115">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="N115">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="O115">
         <v>1.4</v>
@@ -13655,7 +13655,7 @@
         <v>4</v>
       </c>
       <c r="AH115">
-        <v>0</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="116" spans="1:34">
@@ -13675,13 +13675,13 @@
         <v>374</v>
       </c>
       <c r="F116">
-        <v>2.94</v>
+        <v>2.75</v>
       </c>
       <c r="G116">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
       <c r="H116">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="I116">
         <v>1.08</v>
@@ -13696,10 +13696,10 @@
         <v>3.07</v>
       </c>
       <c r="M116">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="N116">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="O116">
         <v>1.46</v>
@@ -13779,13 +13779,13 @@
         <v>375</v>
       </c>
       <c r="F117">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="G117">
+        <v>3.05</v>
+      </c>
+      <c r="H117">
         <v>3.1</v>
-      </c>
-      <c r="H117">
-        <v>3.2</v>
       </c>
       <c r="I117">
         <v>1.08</v>
@@ -13800,10 +13800,10 @@
         <v>2.8</v>
       </c>
       <c r="M117">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="N117">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="O117">
         <v>1.5</v>
@@ -13883,13 +13883,13 @@
         <v>376</v>
       </c>
       <c r="F118">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G118">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H118">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="I118">
         <v>1.05</v>
@@ -13904,10 +13904,10 @@
         <v>3.75</v>
       </c>
       <c r="M118">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="N118">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="O118">
         <v>1.4</v>
@@ -13955,10 +13955,10 @@
         <v>2.61</v>
       </c>
       <c r="AD118">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE118">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AF118">
         <v>1.53</v>
@@ -13987,13 +13987,13 @@
         <v>377</v>
       </c>
       <c r="F119">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G119">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H119">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I119">
         <v>1.05</v>
@@ -14008,10 +14008,10 @@
         <v>3.3</v>
       </c>
       <c r="M119">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="N119">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="O119">
         <v>1.39</v>
@@ -14059,10 +14059,10 @@
         <v>3.28</v>
       </c>
       <c r="AD119">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE119">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF119">
         <v>1.5</v>
@@ -14091,7 +14091,7 @@
         <v>378</v>
       </c>
       <c r="F120">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="G120">
         <v>3.25</v>
@@ -14112,10 +14112,10 @@
         <v>3.5</v>
       </c>
       <c r="M120">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="N120">
-        <v>1.73</v>
+        <v>1.88</v>
       </c>
       <c r="O120">
         <v>1.4</v>
@@ -14163,7 +14163,7 @@
         <v>2.41</v>
       </c>
       <c r="AD120">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE120">
         <v>1.38</v>
@@ -14175,7 +14175,7 @@
         <v>2.14</v>
       </c>
       <c r="AH120">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="121" spans="1:34">
@@ -14195,13 +14195,13 @@
         <v>379</v>
       </c>
       <c r="F121">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="G121">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H121">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="I121">
         <v>1.04</v>
@@ -14216,10 +14216,10 @@
         <v>4</v>
       </c>
       <c r="M121">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="N121">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="O121">
         <v>1.33</v>
@@ -14267,10 +14267,10 @@
         <v>1.9</v>
       </c>
       <c r="AD121">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE121">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF121">
         <v>1.5</v>
@@ -14299,13 +14299,13 @@
         <v>380</v>
       </c>
       <c r="F122">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="G122">
         <v>3.4</v>
       </c>
       <c r="H122">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I122">
         <v>1.06</v>
@@ -14320,10 +14320,10 @@
         <v>3.3</v>
       </c>
       <c r="M122">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="N122">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="O122">
         <v>1.4</v>
@@ -14371,7 +14371,7 @@
         <v>3.8</v>
       </c>
       <c r="AD122">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE122">
         <v>1.38</v>
@@ -14383,7 +14383,7 @@
         <v>2.14</v>
       </c>
       <c r="AH122">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="123" spans="1:34">
@@ -14403,13 +14403,13 @@
         <v>381</v>
       </c>
       <c r="F123">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="G123">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H123">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="I123">
         <v>1.06</v>
@@ -14424,10 +14424,10 @@
         <v>3</v>
       </c>
       <c r="M123">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="N123">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="O123">
         <v>1.43</v>
@@ -14475,7 +14475,7 @@
         <v>2</v>
       </c>
       <c r="AD123">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE123">
         <v>1.39</v>
@@ -14487,7 +14487,7 @@
         <v>2.15</v>
       </c>
       <c r="AH123">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="124" spans="1:34">
@@ -14507,13 +14507,13 @@
         <v>382</v>
       </c>
       <c r="F124">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="G124">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="H124">
-        <v>3.16</v>
+        <v>3.2</v>
       </c>
       <c r="I124">
         <v>1.06</v>
@@ -14528,10 +14528,10 @@
         <v>3.4</v>
       </c>
       <c r="M124">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="N124">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O124">
         <v>1.4</v>
@@ -14611,13 +14611,13 @@
         <v>254</v>
       </c>
       <c r="F125">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="G125">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H125">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="I125">
         <v>1.04</v>
@@ -14632,10 +14632,10 @@
         <v>4.5</v>
       </c>
       <c r="M125">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="N125">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="O125">
         <v>1.3</v>
@@ -14715,13 +14715,13 @@
         <v>383</v>
       </c>
       <c r="F126">
-        <v>3.51</v>
+        <v>3.4</v>
       </c>
       <c r="G126">
-        <v>3.74</v>
+        <v>3.5</v>
       </c>
       <c r="H126">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -14736,10 +14736,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="N126">
-        <v>2.03</v>
+        <v>1.89</v>
       </c>
       <c r="O126">
         <v>0</v>
@@ -14819,13 +14819,13 @@
         <v>384</v>
       </c>
       <c r="F127">
-        <v>5.85</v>
+        <v>5.5</v>
       </c>
       <c r="G127">
-        <v>4.38</v>
+        <v>4.2</v>
       </c>
       <c r="H127">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -14840,10 +14840,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="N127">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -14923,10 +14923,10 @@
         <v>385</v>
       </c>
       <c r="F128">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="G128">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="H128">
         <v>2.3</v>
@@ -14944,10 +14944,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="N128">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -15027,13 +15027,13 @@
         <v>386</v>
       </c>
       <c r="F129">
-        <v>2.7</v>
+        <v>2.62</v>
       </c>
       <c r="G129">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H129">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I129">
         <v>1.06</v>
@@ -15048,10 +15048,10 @@
         <v>3.4</v>
       </c>
       <c r="M129">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="N129">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
         <v>1.4</v>
@@ -15131,13 +15131,13 @@
         <v>387</v>
       </c>
       <c r="F130">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="G130">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H130">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="I130">
         <v>1.06</v>
@@ -15152,10 +15152,10 @@
         <v>3.3</v>
       </c>
       <c r="M130">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="N130">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="O130">
         <v>1.4</v>
@@ -15203,7 +15203,7 @@
         <v>1.95</v>
       </c>
       <c r="AD130">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE130">
         <v>1.38</v>
@@ -15215,7 +15215,7 @@
         <v>2.18</v>
       </c>
       <c r="AH130">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="131" spans="1:34">
@@ -15235,13 +15235,13 @@
         <v>388</v>
       </c>
       <c r="F131">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="G131">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="H131">
-        <v>3.19</v>
+        <v>3.08</v>
       </c>
       <c r="I131">
         <v>1.02</v>
@@ -15256,10 +15256,10 @@
         <v>3.4</v>
       </c>
       <c r="M131">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N131">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="O131">
         <v>1.39</v>
@@ -15339,13 +15339,13 @@
         <v>389</v>
       </c>
       <c r="F132">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="G132">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="H132">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="I132">
         <v>1.03</v>
@@ -15360,10 +15360,10 @@
         <v>4.33</v>
       </c>
       <c r="M132">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="N132">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="O132">
         <v>1.3</v>
@@ -15443,13 +15443,13 @@
         <v>390</v>
       </c>
       <c r="F133">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
       <c r="G133">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="H133">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="I133">
         <v>1.02</v>
@@ -15464,10 +15464,10 @@
         <v>5.6</v>
       </c>
       <c r="M133">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="N133">
-        <v>2.94</v>
+        <v>2.83</v>
       </c>
       <c r="O133">
         <v>1.2</v>
@@ -15547,13 +15547,13 @@
         <v>391</v>
       </c>
       <c r="F134">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="G134">
-        <v>3.89</v>
+        <v>4</v>
       </c>
       <c r="H134">
-        <v>4.93</v>
+        <v>5</v>
       </c>
       <c r="I134">
         <v>1.03</v>
@@ -15568,10 +15568,10 @@
         <v>4</v>
       </c>
       <c r="M134">
+        <v>1.79</v>
+      </c>
+      <c r="N134">
         <v>1.88</v>
-      </c>
-      <c r="N134">
-        <v>1.93</v>
       </c>
       <c r="O134">
         <v>1.33</v>
@@ -15651,52 +15651,52 @@
         <v>311</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="J135">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="K135">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="M135">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N135">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O135">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P135">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="Q135">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R135">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="S135">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="T135">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U135">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V135">
         <v>1.18</v>
@@ -15714,22 +15714,22 @@
         <v>2.57</v>
       </c>
       <c r="AA135">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AB135">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AC135">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AD135">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AE135">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="AF135">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AG135">
         <v>0</v>
@@ -15755,13 +15755,13 @@
         <v>392</v>
       </c>
       <c r="F136">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="G136">
-        <v>3.83</v>
+        <v>3.65</v>
       </c>
       <c r="H136">
-        <v>4.13</v>
+        <v>3.65</v>
       </c>
       <c r="I136">
         <v>1.02</v>
@@ -15776,10 +15776,10 @@
         <v>4.2</v>
       </c>
       <c r="M136">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="N136">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="O136">
         <v>1.32</v>
@@ -15859,13 +15859,13 @@
         <v>393</v>
       </c>
       <c r="F137">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G137">
-        <v>4.69</v>
+        <v>4.6</v>
       </c>
       <c r="H137">
-        <v>9.359999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="I137">
         <v>1.03</v>
@@ -15880,10 +15880,10 @@
         <v>4</v>
       </c>
       <c r="M137">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="N137">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="O137">
         <v>1.35</v>
@@ -15963,13 +15963,13 @@
         <v>394</v>
       </c>
       <c r="F138">
-        <v>3.58</v>
+        <v>3.4</v>
       </c>
       <c r="G138">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="H138">
-        <v>2.19</v>
+        <v>2.25</v>
       </c>
       <c r="I138">
         <v>1.09</v>
@@ -15978,16 +15978,16 @@
         <v>7.25</v>
       </c>
       <c r="K138">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="L138">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="M138">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="N138">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="O138">
         <v>1.55</v>
@@ -16067,13 +16067,13 @@
         <v>395</v>
       </c>
       <c r="F139">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="G139">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="H139">
-        <v>4.06</v>
+        <v>3.15</v>
       </c>
       <c r="I139">
         <v>1.15</v>
@@ -16082,16 +16082,16 @@
         <v>5.5</v>
       </c>
       <c r="K139">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="L139">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="M139">
-        <v>2.89</v>
+        <v>2.97</v>
       </c>
       <c r="N139">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="O139">
         <v>1.63</v>
@@ -16171,13 +16171,13 @@
         <v>396</v>
       </c>
       <c r="F140">
-        <v>5.17</v>
+        <v>6.25</v>
       </c>
       <c r="G140">
-        <v>5.37</v>
+        <v>5</v>
       </c>
       <c r="H140">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="I140">
         <v>1.01</v>
@@ -16192,10 +16192,10 @@
         <v>5.45</v>
       </c>
       <c r="M140">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="N140">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="O140">
         <v>1.22</v>
@@ -16275,13 +16275,13 @@
         <v>397</v>
       </c>
       <c r="F141">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="G141">
-        <v>3.14</v>
+        <v>3.4</v>
       </c>
       <c r="H141">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I141">
         <v>1.08</v>
@@ -16290,16 +16290,16 @@
         <v>7</v>
       </c>
       <c r="K141">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="L141">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="M141">
-        <v>2.74</v>
+        <v>2.51</v>
       </c>
       <c r="N141">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="O141">
         <v>1.62</v>
@@ -16379,13 +16379,13 @@
         <v>398</v>
       </c>
       <c r="F142">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="G142">
-        <v>3.42</v>
+        <v>3.1</v>
       </c>
       <c r="H142">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="I142">
         <v>1.07</v>
@@ -16400,10 +16400,10 @@
         <v>3.35</v>
       </c>
       <c r="M142">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="N142">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O142">
         <v>1.4</v>
@@ -16483,13 +16483,13 @@
         <v>399</v>
       </c>
       <c r="F143">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="G143">
-        <v>3.62</v>
+        <v>3.4</v>
       </c>
       <c r="H143">
-        <v>2.68</v>
+        <v>2.65</v>
       </c>
       <c r="I143">
         <v>1.04</v>
@@ -16504,10 +16504,10 @@
         <v>3.67</v>
       </c>
       <c r="M143">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="N143">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="O143">
         <v>1.38</v>
@@ -16587,13 +16587,13 @@
         <v>400</v>
       </c>
       <c r="F144">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="G144">
-        <v>3.58</v>
+        <v>3.3</v>
       </c>
       <c r="H144">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I144">
         <v>1.04</v>
@@ -16608,10 +16608,10 @@
         <v>3.4</v>
       </c>
       <c r="M144">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="N144">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="O144">
         <v>1.36</v>
@@ -16691,13 +16691,13 @@
         <v>401</v>
       </c>
       <c r="F145">
-        <v>1.89</v>
+        <v>1.97</v>
       </c>
       <c r="G145">
-        <v>3.31</v>
+        <v>3.05</v>
       </c>
       <c r="H145">
-        <v>4.85</v>
+        <v>4</v>
       </c>
       <c r="I145">
         <v>1.09</v>
@@ -16706,16 +16706,16 @@
         <v>7</v>
       </c>
       <c r="K145">
+        <v>1.5</v>
+      </c>
+      <c r="L145">
+        <v>2.55</v>
+      </c>
+      <c r="M145">
+        <v>2.44</v>
+      </c>
+      <c r="N145">
         <v>1.48</v>
-      </c>
-      <c r="L145">
-        <v>2.46</v>
-      </c>
-      <c r="M145">
-        <v>2.41</v>
-      </c>
-      <c r="N145">
-        <v>1.5</v>
       </c>
       <c r="O145">
         <v>1.55</v>
@@ -16775,7 +16775,7 @@
         <v>4.2</v>
       </c>
       <c r="AH145">
-        <v>0</v>
+        <v>6.05</v>
       </c>
     </row>
     <row r="146" spans="1:34">
@@ -16795,13 +16795,13 @@
         <v>402</v>
       </c>
       <c r="F146">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="G146">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="H146">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I146">
         <v>1.08</v>
@@ -16816,10 +16816,10 @@
         <v>2.9</v>
       </c>
       <c r="M146">
-        <v>2.25</v>
+        <v>2.14</v>
       </c>
       <c r="N146">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="O146">
         <v>1.5</v>
@@ -16899,13 +16899,13 @@
         <v>403</v>
       </c>
       <c r="F147">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="G147">
-        <v>3.48</v>
+        <v>3.2</v>
       </c>
       <c r="H147">
-        <v>4.11</v>
+        <v>3.75</v>
       </c>
       <c r="I147">
         <v>1.08</v>
@@ -16920,10 +16920,10 @@
         <v>2.85</v>
       </c>
       <c r="M147">
-        <v>2.11</v>
+        <v>2.17</v>
       </c>
       <c r="N147">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="O147">
         <v>1.5</v>
@@ -17003,13 +17003,13 @@
         <v>404</v>
       </c>
       <c r="F148">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="G148">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="H148">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="I148">
         <v>1.07</v>
@@ -17024,10 +17024,10 @@
         <v>3.3</v>
       </c>
       <c r="M148">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="N148">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="O148">
         <v>1.44</v>
@@ -17107,13 +17107,13 @@
         <v>405</v>
       </c>
       <c r="F149">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="G149">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="H149">
-        <v>3.33</v>
+        <v>2.95</v>
       </c>
       <c r="I149">
         <v>1.1</v>
@@ -17128,10 +17128,10 @@
         <v>2.71</v>
       </c>
       <c r="M149">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="N149">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O149">
         <v>1.52</v>
@@ -17211,13 +17211,13 @@
         <v>406</v>
       </c>
       <c r="F150">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G150">
-        <v>3.32</v>
+        <v>3.1</v>
       </c>
       <c r="H150">
-        <v>4.47</v>
+        <v>4</v>
       </c>
       <c r="I150">
         <v>1.1</v>
@@ -17232,10 +17232,10 @@
         <v>2.64</v>
       </c>
       <c r="M150">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="N150">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O150">
         <v>1.55</v>
@@ -17315,13 +17315,13 @@
         <v>407</v>
       </c>
       <c r="F151">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="G151">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
       <c r="H151">
-        <v>3.39</v>
+        <v>3.1</v>
       </c>
       <c r="I151">
         <v>1.12</v>
@@ -17333,13 +17333,13 @@
         <v>1.53</v>
       </c>
       <c r="L151">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="M151">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="N151">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="O151">
         <v>1.6</v>
@@ -17419,13 +17419,13 @@
         <v>408</v>
       </c>
       <c r="F152">
-        <v>1.59</v>
+        <v>1.65</v>
       </c>
       <c r="G152">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="H152">
-        <v>6.86</v>
+        <v>5.5</v>
       </c>
       <c r="I152">
         <v>1.09</v>
@@ -17440,10 +17440,10 @@
         <v>2.71</v>
       </c>
       <c r="M152">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="N152">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O152">
         <v>1.52</v>
@@ -17538,16 +17538,16 @@
         <v>7.65</v>
       </c>
       <c r="K153">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="L153">
-        <v>2.64</v>
+        <v>2.37</v>
       </c>
       <c r="M153">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="N153">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="O153">
         <v>1.47</v>
@@ -17627,13 +17627,13 @@
         <v>410</v>
       </c>
       <c r="F154">
-        <v>8.35</v>
+        <v>7.75</v>
       </c>
       <c r="G154">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="H154">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I154">
         <v>1.02</v>
@@ -17648,10 +17648,10 @@
         <v>3.82</v>
       </c>
       <c r="M154">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="N154">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="O154">
         <v>1.33</v>
@@ -17734,10 +17734,10 @@
         <v>2.2</v>
       </c>
       <c r="G155">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="H155">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I155">
         <v>1.08</v>
@@ -17752,10 +17752,10 @@
         <v>3</v>
       </c>
       <c r="M155">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="N155">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="O155">
         <v>1.5</v>
@@ -17815,7 +17815,7 @@
         <v>3.45</v>
       </c>
       <c r="AH155">
-        <v>0</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="156" spans="1:34">
@@ -17835,13 +17835,13 @@
         <v>412</v>
       </c>
       <c r="F156">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="G156">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H156">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="I156">
         <v>1.06</v>
@@ -17856,7 +17856,7 @@
         <v>3.25</v>
       </c>
       <c r="M156">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="N156">
         <v>1.87</v>
@@ -17942,10 +17942,10 @@
         <v>1.22</v>
       </c>
       <c r="G157">
-        <v>6.84</v>
+        <v>6.5</v>
       </c>
       <c r="H157">
-        <v>12.49</v>
+        <v>15</v>
       </c>
       <c r="I157">
         <v>1.01</v>
@@ -17960,10 +17960,10 @@
         <v>5.87</v>
       </c>
       <c r="M157">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N157">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="O157">
         <v>1.23</v>
@@ -18043,13 +18043,13 @@
         <v>414</v>
       </c>
       <c r="F158">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="G158">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="H158">
-        <v>2.7</v>
+        <v>2.85</v>
       </c>
       <c r="I158">
         <v>1.02</v>
@@ -18064,10 +18064,10 @@
         <v>4.5</v>
       </c>
       <c r="M158">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="N158">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="O158">
         <v>1.3</v>
@@ -18106,13 +18106,13 @@
         <v>3.28</v>
       </c>
       <c r="AA158">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AB158">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC158">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AD158">
         <v>1.18</v>
@@ -18147,10 +18147,10 @@
         <v>415</v>
       </c>
       <c r="F159">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="G159">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H159">
         <v>7</v>
@@ -18168,10 +18168,10 @@
         <v>4</v>
       </c>
       <c r="M159">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="N159">
-        <v>2.2</v>
+        <v>2.09</v>
       </c>
       <c r="O159">
         <v>1.29</v>
@@ -18219,10 +18219,10 @@
         <v>6.5</v>
       </c>
       <c r="AD159">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE159">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AF159">
         <v>1.69</v>
@@ -18251,13 +18251,13 @@
         <v>416</v>
       </c>
       <c r="F160">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="G160">
-        <v>3.59</v>
+        <v>3.2</v>
       </c>
       <c r="H160">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="I160">
         <v>1.05</v>
@@ -18272,10 +18272,10 @@
         <v>3.4</v>
       </c>
       <c r="M160">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="N160">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="O160">
         <v>1.36</v>
@@ -18355,13 +18355,13 @@
         <v>417</v>
       </c>
       <c r="F161">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="G161">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H161">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="I161">
         <v>1.03</v>
@@ -18379,7 +18379,7 @@
         <v>1.61</v>
       </c>
       <c r="N161">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="O161">
         <v>1.3</v>
@@ -18459,13 +18459,13 @@
         <v>418</v>
       </c>
       <c r="F162">
-        <v>2.09</v>
+        <v>2.45</v>
       </c>
       <c r="G162">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="H162">
-        <v>3.46</v>
+        <v>2.6</v>
       </c>
       <c r="I162">
         <v>1.03</v>
@@ -18480,10 +18480,10 @@
         <v>4</v>
       </c>
       <c r="M162">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="N162">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="O162">
         <v>1.34</v>
@@ -18563,13 +18563,13 @@
         <v>419</v>
       </c>
       <c r="F163">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
       <c r="G163">
-        <v>3.49</v>
+        <v>3.25</v>
       </c>
       <c r="H163">
-        <v>2.67</v>
+        <v>2.55</v>
       </c>
       <c r="I163">
         <v>1.07</v>
@@ -18584,10 +18584,10 @@
         <v>3.1</v>
       </c>
       <c r="M163">
-        <v>1.96</v>
+        <v>1.86</v>
       </c>
       <c r="N163">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="O163">
         <v>1.44</v>
@@ -18667,13 +18667,13 @@
         <v>420</v>
       </c>
       <c r="F164">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="G164">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="H164">
-        <v>5.82</v>
+        <v>5.2</v>
       </c>
       <c r="I164">
         <v>1.02</v>
@@ -18688,10 +18688,10 @@
         <v>4</v>
       </c>
       <c r="M164">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="N164">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="O164">
         <v>1.32</v>
@@ -18771,13 +18771,13 @@
         <v>421</v>
       </c>
       <c r="F165">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="G165">
-        <v>5.69</v>
+        <v>5.5</v>
       </c>
       <c r="H165">
-        <v>8.539999999999999</v>
+        <v>8</v>
       </c>
       <c r="I165">
         <v>1.02</v>
@@ -18792,10 +18792,10 @@
         <v>5</v>
       </c>
       <c r="M165">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="N165">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="O165">
         <v>1.25</v>
@@ -18875,13 +18875,13 @@
         <v>422</v>
       </c>
       <c r="F166">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="G166">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="H166">
-        <v>3.46</v>
+        <v>3.1</v>
       </c>
       <c r="I166">
         <v>1.14</v>
@@ -18890,13 +18890,13 @@
         <v>5</v>
       </c>
       <c r="K166">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="L166">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="M166">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
       <c r="N166">
         <v>1.36</v>
@@ -18979,13 +18979,13 @@
         <v>423</v>
       </c>
       <c r="F167">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="G167">
-        <v>3.59</v>
+        <v>3.65</v>
       </c>
       <c r="H167">
-        <v>5.44</v>
+        <v>5.25</v>
       </c>
       <c r="I167">
         <v>1.06</v>
@@ -19000,10 +19000,10 @@
         <v>2.95</v>
       </c>
       <c r="M167">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N167">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="O167">
         <v>1.44</v>
@@ -19291,13 +19291,13 @@
         <v>426</v>
       </c>
       <c r="F170">
-        <v>5.4</v>
+        <v>5.75</v>
       </c>
       <c r="G170">
         <v>3.75</v>
       </c>
       <c r="H170">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="I170">
         <v>1.06</v>
@@ -19312,10 +19312,10 @@
         <v>3.4</v>
       </c>
       <c r="M170">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="N170">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="O170">
         <v>1.39</v>
@@ -19395,13 +19395,13 @@
         <v>427</v>
       </c>
       <c r="F171">
-        <v>11.16</v>
+        <v>9.5</v>
       </c>
       <c r="G171">
-        <v>5.69</v>
+        <v>5.5</v>
       </c>
       <c r="H171">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="I171">
         <v>1.02</v>
@@ -19416,10 +19416,10 @@
         <v>4</v>
       </c>
       <c r="M171">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="N171">
-        <v>2.27</v>
+        <v>2.13</v>
       </c>
       <c r="O171">
         <v>1.33</v>
@@ -19499,13 +19499,13 @@
         <v>428</v>
       </c>
       <c r="F172">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="G172">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="H172">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -19520,10 +19520,10 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>1.95</v>
+        <v>1.78</v>
       </c>
       <c r="N172">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O172">
         <v>0</v>
@@ -19603,13 +19603,13 @@
         <v>429</v>
       </c>
       <c r="F173">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="G173">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="H173">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="I173">
         <v>1.06</v>
@@ -19624,10 +19624,10 @@
         <v>3.25</v>
       </c>
       <c r="M173">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="N173">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="O173">
         <v>1.35</v>
@@ -19707,10 +19707,10 @@
         <v>430</v>
       </c>
       <c r="F174">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="G174">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H174">
         <v>6</v>
@@ -19728,10 +19728,10 @@
         <v>4.75</v>
       </c>
       <c r="M174">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="N174">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="O174">
         <v>1.29</v>
@@ -19915,10 +19915,10 @@
         <v>431</v>
       </c>
       <c r="F176">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="G176">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H176">
         <v>2.6</v>
@@ -19936,10 +19936,10 @@
         <v>2.45</v>
       </c>
       <c r="M176">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="N176">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="O176">
         <v>1.53</v>
@@ -20955,13 +20955,13 @@
         <v>438</v>
       </c>
       <c r="F186">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="G186">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H186">
-        <v>2.45</v>
+        <v>3.05</v>
       </c>
       <c r="I186">
         <v>1.05</v>
@@ -20976,10 +20976,10 @@
         <v>3.6</v>
       </c>
       <c r="M186">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="N186">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="O186">
         <v>1.33</v>
